--- a/data/hotels_by_city/Dallas/Dallas_shard_55.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="686">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Erick T</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Just completed my first stay at a Candlewood Suite and the 4 night experience exceeded my expectation.    The property is well situated in the North Dallas Galleria area - 2 blocks to the Galleria.   There’s a Starbucks and a few restaurants all within walking distance in this very safe area of Big D.  The property is older but clean and well maintained.   My AC wasn’t cooling down the bedroom and the maintenance supervisor was in my room within 10 minutes and quickly resolved the issue.    Like every other staff I encountered, he was very positive and professional.  The property has a functional but small fitness center.   Free washers and dryers.    Free strong WiFi - supported my 3 devices with no issues.   Cable TV with 3 HBO channels.    There’s also a pantry with lots of food/drink options and it’s based on the honor system.   Seriously - very convenient.  While the furniture in the room was well worn, it was a large clean space.    Bed was very comfortable.    Plenty of towels and strong water pressure.    Kitchen had coffee maker, toaster, refrigerator and all the utensils I needed for this stay.    Great rate and good consistent service = comfortable stay.    I’m glad I took a chance and booked here.   Will be backMore</t>
   </si>
   <si>
+    <t>Sauce D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r547086461-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Hi, My name is Jennifer and at first I had trouble booking online so I ended up with 3 reservations for 2 different lengths of stays!!! I really screwed up as I honestly had no idea what I was doing since my husband used to handle these things, so I was already very, very nervous and on edge trying to do this and all things on my own. So then I come in and meet BERNIE, GUEST SERVICE HERO!!!!!! He weeded through my reservations and got me the room that I needed, then let me check in EARLY!!! YES, THAT'S RIGHT LADIES AND GENTLEMEN A HOTEL (BERNIE... BERNIE, GUEST SERVICE HERO is his name, customer service is SOOOOO his game!!!) Let me check in early, SOUND THE ALARMS AND PLEASE DON'T TELL YOUR FRIENDS (I'd like to keep this part to ourselves as to NOT sound the alarms and ruin our little secret!!!) And here is the REAL SHOCKER for most..... DO NOT ADJUST YOUR SCREEN ready? BERNIE, GUEST SERVICE HERO in the true sense &amp; pleasent. With a GASP.... SHOCK..... and in awe he truly truly made a veey maddening and kind of a sad new move turned actually positive day for sure. I haven't seen my room yet, but I'm sure BERNIE, MY GUEST SERVICE HERO pocked out the perfect room for us. THANK YOU BERNIE, my true hero of the day, I will not forget it or...Hi, My name is Jennifer and at first I had trouble booking online so I ended up with 3 reservations for 2 different lengths of stays!!! I really screwed up as I honestly had no idea what I was doing since my husband used to handle these things, so I was already very, very nervous and on edge trying to do this and all things on my own. So then I come in and meet BERNIE, GUEST SERVICE HERO!!!!!! He weeded through my reservations and got me the room that I needed, then let me check in EARLY!!! YES, THAT'S RIGHT LADIES AND GENTLEMEN A HOTEL (BERNIE... BERNIE, GUEST SERVICE HERO is his name, customer service is SOOOOO his game!!!) Let me check in early, SOUND THE ALARMS AND PLEASE DON'T TELL YOUR FRIENDS (I'd like to keep this part to ourselves as to NOT sound the alarms and ruin our little secret!!!) And here is the REAL SHOCKER for most..... DO NOT ADJUST YOUR SCREEN ready? BERNIE, GUEST SERVICE HERO in the true sense &amp; pleasent. With a GASP.... SHOCK..... and in awe he truly truly made a veey maddening and kind of a sad new move turned actually positive day for sure. I haven't seen my room yet, but I'm sure BERNIE, MY GUEST SERVICE HERO pocked out the perfect room for us. THANK YOU BERNIE, my true hero of the day, I will not forget it or you and I hope we got to see lots of you during our stay at Candlewood Suites!!! So in all ladies and gentlemen, if you are blessed enough to stay here make sure you get him.More</t>
   </si>
   <si>
+    <t>amedelli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r544811937-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>The_original321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r540419011-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ativan69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r539922050-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +339,9 @@
     <t>This particular Candlewood Suites was poor for the great location it was in! Upon check in the lobby is very small, like 1 door open small! We stayed on the 3rd floor in the last room on the hall. Long walk! It smelled terrible! We had a non smoking room BUT the smell was over bearing! Chelsea from the front desk (very kind) brought up a machine to "filter" the air for us. But we couldn't be in the room for almost 2 hours! When we got back the smell was WORSE! She left the machine in the room. I guess she took notice that we didn't have a trash can in our bathroom either &amp; brought 1 up. The sheets on the bed were inside out. Like they just flipped them over...? The paint was odd like it still needed to be painted... splotchy. But the air conditioner was a mess! It was a broken  one sitting on top of a old one! It had been tapped together with duct tape LOL! A hole was cut in the wall to allow air into the bedroom! So the temp. was always freezing in the front room &amp; kitchen but warm in the bedroom! Also if you wanted fresh towels you had to take the dirty one's downstairs to the front desk in exchange for clean one's! Who wants to carry dirty towels downstairs to the front desk?! There is no...This particular Candlewood Suites was poor for the great location it was in! Upon check in the lobby is very small, like 1 door open small! We stayed on the 3rd floor in the last room on the hall. Long walk! It smelled terrible! We had a non smoking room BUT the smell was over bearing! Chelsea from the front desk (very kind) brought up a machine to "filter" the air for us. But we couldn't be in the room for almost 2 hours! When we got back the smell was WORSE! She left the machine in the room. I guess she took notice that we didn't have a trash can in our bathroom either &amp; brought 1 up. The sheets on the bed were inside out. Like they just flipped them over...? The paint was odd like it still needed to be painted... splotchy. But the air conditioner was a mess! It was a broken  one sitting on top of a old one! It had been tapped together with duct tape LOL! A hole was cut in the wall to allow air into the bedroom! So the temp. was always freezing in the front room &amp; kitchen but warm in the bedroom! Also if you wanted fresh towels you had to take the dirty one's downstairs to the front desk in exchange for clean one's! Who wants to carry dirty towels downstairs to the front desk?! There is no pool! But you can wash for free! I'm pretty sure we'll never stay here again!!! More</t>
   </si>
   <si>
+    <t>Quiet_Night</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r493642754-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +372,9 @@
     <t>We stayed here for one night while passing through Dallas, Texas.  I've stayed at Candlewood Suites before, and this hotel was of similar quality.  The nice features of this chain are the Candlewood Cupboard which has food, drink, and toiletries for purchase, free laundry, and above-average workout centers.  The rooms were updated and clean.  The desk agents were super friendly and welcoming to an IHG member.  Drawback is this chain has smoking rooms although they are on a separate wing.  Also, this particular hotel did not have a pool.More</t>
   </si>
   <si>
+    <t>Imad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r491423896-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +393,9 @@
     <t>I stay here every time I'm in Dallas and absolutely love this hotel. The service is great, the staff are amazing special thank you to Denise and the room is modern, large and has everything you need for a comfortable stay. Location is minutes from The Galleria and walking distance to restaurants and shop. Highly recommendedMore</t>
   </si>
   <si>
+    <t>travelmandfw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r488075576-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,6 +423,9 @@
     <t>This property sits in a very high end area for hotels and represents a great value near businesses, shopping, and restaurants. It has all one needs without all the fuss.Since it is a suite hotel with a kitchen one could have their breakfast in their suite and other meals/snacks. Location is awesome with a terrific staff. I'd highly recommend this property to anyone coming to Dallas desiring this areaMore</t>
   </si>
   <si>
+    <t>doctall41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r485774257-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +444,9 @@
     <t>We stayed here before our flight to California. The Candlewood Galleria is your typical Candlewood, the room was nice with a full kitchen, separate bedroom and it has two tv's. The best thing about the hotel was Chelsea, the clerk at the desk. She was amazing!More</t>
   </si>
   <si>
+    <t>mannichamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r452537619-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -438,6 +468,9 @@
     <t>Stayed for a week at the Candlewood Suites. Overall had a very pleasant experience.Positives- Excellent location. Walking distance to the Galleria Mall and a lot of excellent restaurants. Very useful if you dont have your own car.- Excellent staff - The staff is always cheerful and ready to help in any way. Check In, Check Out really smooth and fast.- The suites are spacious and have everything one would need. Suitable for small families. Spacious bathroom stocked with toiletries.- In house laundry.Negatives- Breakfast included in the stay package would be nice.Overall this is an excellent option for a long stay especially for families.More</t>
   </si>
   <si>
+    <t>Kathy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r447278240-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +495,9 @@
     <t>Staff was very nice and helpful.  Room was clean and quiet.  Good channel selection for TV.  Bed was newer and comfortable.  Walking distance to Galleria and other shops and resturants.  Will stay again on next trip.More</t>
   </si>
   <si>
+    <t>USAFoodsGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r423974457-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -483,6 +519,9 @@
     <t>Stayed 9 nights, didn't know what to expect - as this was our first time at the chain. The location is excellent with close by freeways to everywhere in Dallas - downtown about 15 minutes with light traffic. The Staff is more than helpful, and took care of an a/c problem quickly. The room we have is the upgraded one, this has a separate bedroom and living/kitchen area. In the kitchen only thing lacking is an oven, you can get a toaster oven from the desk. Having  a kitchen is great when your tired of eating out.There are 6 washers and dryers - all Free...The internet is Fast with no slow times - so much better then many other hotelsSome misses - would prefer a king size or 2 double beds, but the queen was o.k, and the BBQ works, but needs to be retired - it's falling apart.More</t>
   </si>
   <si>
+    <t>D8400JAheatherh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r412958000-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>My daughter and I stayed a few nights with my sister here so I could watch her son a few days during her job training .  I was  very surprised at the quality of this location when I arrived.  As someone who has stayed in quite a few hotels  over the last year; this particular one stands out. This hotel comes fully stocked with everything you could possibly need during a stay away from home! It comes equipped with a glass top two burner stove with safety features to help avoid accidents with children, an overhead microwave with vent , hot pad, cutting board, dishwasher, full size refrigerator, kitchen hand towels and washcloths, dishwasher, scrub brush, dishwashing soap, dishwashing detergent, all the cooking utensils you could need, two spoons, knives and forks as well as three separate cooking knives. They even had a can opener and peeler along with a complete set of pots and pans with lids. In the cabinets they had plates, bowls, cups, ceramic and paper to go coffee cups, four different Tupperware , a strainer and a toaster! They also include a laundry basket so that you can easily put your dirty clothes down to the free laundry room located near there in hotel mini store where you can find just about anything you might be looking for! They have an on-site Fitness Center and a patio area where they have a cooking grill where they...My daughter and I stayed a few nights with my sister here so I could watch her son a few days during her job training .  I was  very surprised at the quality of this location when I arrived.  As someone who has stayed in quite a few hotels  over the last year; this particular one stands out. This hotel comes fully stocked with everything you could possibly need during a stay away from home! It comes equipped with a glass top two burner stove with safety features to help avoid accidents with children, an overhead microwave with vent , hot pad, cutting board, dishwasher, full size refrigerator, kitchen hand towels and washcloths, dishwasher, scrub brush, dishwashing soap, dishwashing detergent, all the cooking utensils you could need, two spoons, knives and forks as well as three separate cooking knives. They even had a can opener and peeler along with a complete set of pots and pans with lids. In the cabinets they had plates, bowls, cups, ceramic and paper to go coffee cups, four different Tupperware , a strainer and a toaster! They also include a laundry basket so that you can easily put your dirty clothes down to the free laundry room located near there in hotel mini store where you can find just about anything you might be looking for! They have an on-site Fitness Center and a patio area where they have a cooking grill where they provide all the utensils you could need for that too! The only complaint I have is the water pressure :-) it was clean and updated with a very friendly staff who more than accommodated us with two toddlers! The queen size bed was comfortable and so is the reclining chair! The flat screen TV and DVD player came in handy with the kiddos. The wrap-around desk made an excellent dinner table as well as place to color while keeping the kids busy while my friend went to work. I would absolutely recommend this location to anyone who is looking for a hotel style Suite with a fully loaded kitchen and great amenities to meet any business person's needs as well as any family's needs! The price you could absolutely not beat for what you were getting! I will absolutely be keeping this hotel in mind any time I return to the DFW area!More</t>
   </si>
   <si>
+    <t>shazk71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r380626068-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>Just stayed 2 nights at Candlewood Suits for a weekend getaway. Everything about this hotel was great.Kris at the front desk was very friendly and helpful as soon as we arrived. He went out of his way to make us feel welcome. Check in was easy and parking no problem at any time. Our room had everything we needed for a 2 night stay and was very clean and comfortable. Especially loved the kitchen and DVD player for movies. Checked out the movies for loan at the front desk but ended up walking next door to CVS to Redbox. This hotel is very quiet considering the  closeness and easy access to the freeways. We never had any problem with noise. This was a great location for restaurants and shopping and the closest Walmart, for snacks, was only 2 miles away. Love Field, where I was flying out of, was also only about a 20 minute drive away. I would highly recommend this hotel for anyone looking for a fun, hassle free getaway. It's not fancy by any means but definitely has everything that you need at a great price. More</t>
   </si>
   <si>
+    <t>John E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r376268508-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -556,6 +601,9 @@
   </si>
   <si>
     <t>The Candlewood in Dallas TX by the Galleria is so nice. The rooms are nice, the corporate rate is cheap and they have the best staff. I stay all over the country and this is the only place i have found that has an honor system for snacks and food plus the laundry is free, yes i said free. The washer and dryers are very nice and they have plenty even on the weekends. Their WiFi is as expected, you can email and work but don't try to Skype or stream because they are on a 2MB download plan without any options for premium service.More</t>
+  </si>
+  <si>
+    <t>cindel25</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r364213478-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -591,6 +639,9 @@
 -No cash change machine. If one is going to use the food pantry or do laundry, it would be useful to have the exact change instead of trying to...I was in town for Wrestlemania and this hotel was a last minute switch.  The check in process was easy since I had already prepaid for my stay.  The suite was excellent; spacious bathroom and living/dining area along with a kitchnette.  Everything was provided for but we didn't use the kitchenette that often except to make coffee.The hotel has a lending cabinet where if you need certain kitchen items, you can take it out at the front desk.  They also have a food pantry based on the honor system (which took me a minute to figure out), gym and washer/dryer.   I really like the food pantry which came in handy during those late nights.The Galleria is within walking distance along with a CVS and some fast food chains.  There is also a bus stop (488) right outside the hotel if you need to catch the bus to the train station.  The area was very nice and safe for walking late at night(most of the events ended after 11pm).Here are in my opinion the negatives:  -No ATM Machine in lobby or nearby. When I needed cash, the atms in the area were out of service. (yes, all of them. I walked for over an hour looking for working one).  -No cash change machine. If one is going to use the food pantry or do laundry, it would be useful to have the exact change instead of trying to break bills. -Shuttle Service required advanced notice and will only take you within a 5 mile radius.  I'm not sure where one would need to go in the area but I do think the hotel should at least make it an option to have a shuttle service to the nearest train station or run an airport shuttle like the other candlewood suites in dallas.-Check out process.   I had an early flight so I went down the lobby to check out at 4am. It took a few minutes for someone to finally come to the front desk and I was told the computer was down so I did not get a final receipt of my stay.  There should be some sort of self check out kiosk for early AM check out.-Elevator was broken on my second day here. Overall, I had a nice stay at this property.More</t>
   </si>
   <si>
+    <t>keepwalking w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r361054561-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -617,6 +668,9 @@
     <t>We arrived in to Dallas after long flight from Sydney. We were a bit skeptical initially that we had booked Candlewood over extended stay places ( we had never stayed before) and had 15 nights to bunk down family of 4. The experience was as rated. Tony goes above and beyond and is very personable that's reason I moved it to 5 star instead of 4....
 Pros - Value is unbeatable. I mean just not the price. With most competitive rate, the room is very decent. The facilities are good - cupboard is winning card. It was really convenient to pick up small but important things, nibbles, fluids at a late hour or when you're leaving for somewhere without leaving the facilities....they don't charge and you can pay later - we did and some some folks who didn't . there's is books and games shelf from where my son borrowed monopoly board game. The towels etc are provided on demand and washers and dryers are free. The rooms comes equipped and are standard fitted. The location is very good by the mall and shops. I even managed to catch the bus to work which isn't far. Wifi is  free and newspapers etc. we had a breakfast rate but never took it though we grabbed nibbles from the cupboard time and again
 There could be improvements. Candlewood provides shuttle only on weekdays so If you want to shop on weekends and...We arrived in to Dallas after long flight from Sydney. We were a bit skeptical initially that we had booked Candlewood over extended stay places ( we had never stayed before) and had 15 nights to bunk down family of 4. The experience was as rated. Tony goes above and beyond and is very personable that's reason I moved it to 5 star instead of 4....Pros - Value is unbeatable. I mean just not the price. With most competitive rate, the room is very decent. The facilities are good - cupboard is winning card. It was really convenient to pick up small but important things, nibbles, fluids at a late hour or when you're leaving for somewhere without leaving the facilities....they don't charge and you can pay later - we did and some some folks who didn't . there's is books and games shelf from where my son borrowed monopoly board game. The towels etc are provided on demand and washers and dryers are free. The rooms comes equipped and are standard fitted. The location is very good by the mall and shops. I even managed to catch the bus to work which isn't far. Wifi is  free and newspapers etc. we had a breakfast rate but never took it though we grabbed nibbles from the cupboard time and againThere could be improvements. Candlewood provides shuttle only on weekdays so If you want to shop on weekends and don't have a rental, it's a pain. We had to call a cab and had to spend 40 minutes waiting on the return for a cab. I hope Candlewood does something about making shuttle available on weekends since that's when it's needed most...There was small issue of smell lingering but that not big deal we got a room freshener and it went away after a whileMore</t>
+  </si>
+  <si>
+    <t>Hannah W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r358438519-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -649,6 +703,9 @@
 Very happy with the area &amp; ease of access - the hotel is...Booked in advance for 12 nights at a great price. On arrival we were greeted by Tony - very nice &amp; helpful man, he got us checked in easily, quickly &amp; gave us all the information we needed (which is also in your room). We had a room on the 3rd floor - very spacious, clean &amp; inviting. Decor was nice, looked new. We had everything we needed in our room - kitchenette had everything we needed &amp; bed was very very comfy. Cleaning service was every Sunday - some people may not like the idea of this but we liked the fact that it was on a weekly basis, it meant we didn't have to vacate our room everyday for it to be cleaned etc &amp; it felt like our home for the 12 nights rather than a hotel. "The Cupboard" facility is great - we used it mainly for food but you can get other items like medication, washing powder etc. Anything you want (that is available) you just write down &amp; it is charged to your room which is great if you don't want to leave the hotel for food etc - very trusting of the hotel so gained a lot of respect from us. Free 24 hours washing/drying &amp; gym available which is good although we did not take advantage of these facilities.Very happy with the area &amp; ease of access - the hotel is close to the Galleria shopping mall, lots of restaurants &amp; fast-food places with easy access to the highway - only a 15-20min drive into Dallas which was the main reason we picked this hotel. Have no negatives - this hotel was perfect for our stay.We defiantly recommend this hotel &amp; will defiantly consider staying here again next time we visit Dallas. More</t>
   </si>
   <si>
+    <t>stbeck75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r355447365-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -673,6 +730,9 @@
     <t>I had signed up to stay in the hotel for 32 days though after 13 nights I decided that I had enough of the smell of stale cigarettes in the hallway.  I had emailed a staff member of the hotel expressing my concerns and it appears they knew about the issue on the 3rd floor, and said they sprayed freshener several times a day.  I found that to be very unsettling that after I spent an hour touring the hotel 1st and 2nd floors and the preference to be on a higher quieter floor that they would fail to mention that. When I informed them of my desire to leave the rate went up from $65 a night to $83 a night.  As I was moving out another guest was going up to the 3rd floor to check it out as his room was too noisy for him I warned him of the smell which he smelled when he got off the elevator but he said he couldn't beat the rate of $48.00 per night.  As a loyal IHG member I feel that the hotel could of done more for me though it appears it was all about profit. I don't like to move rooms in a hotel for as a guest the 1st room should be the best room that I can get.More</t>
   </si>
   <si>
+    <t>Anthony T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r351361901-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -700,6 +760,9 @@
     <t>Went to Dallas for shopping.  We only went to Candlewood because our usual (and much more expensive) hotel could not accomodate us for the entire time of our trip.  Hotel was 1/2 mile from the Galleria, making it a great location.  Some people walk to Galleria from Candlewood,  but we didn't.  (It was raining, and besides, who wants to lug all those full shopping bags home?)  Took a city tour, a JFK tour (a little erie), rode the free DART downtown transportation (great way to see parts of the city) and visited the Museum of Art and the "Old Red" museum.  Although a full schedule, we had absolutely no problem with getting to the venues to the hotel.  And a kitchenette at half the price (or less) than many other hotels, what's not to like?  We found this gem by accident, but the value, location, staff and ability to cook our own meals (or not) were all fantastic.  We will be back!More</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r348107974-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -724,6 +787,9 @@
     <t>I use my reward point for this stay for the first time and it was so bad. At check in the front desk agent Tony was really was no-responsive to me being a IHG member. After being in to room for a few minute i need to charge my that is when i come to realize the first outlet did not work come to find out only 2 outlet work in the room i was so upset. So at this point I would like to watch some TV and CHill But the TV was not turning on. So I call down to the front desk for help. I tell Tony the problem and ask for him to come up and fix it. He said ok but never showed up. -_- So I call down again and speak to Chris this times is after 12am. I tell him the same thing I told to Tony then he come up and could not do nothing about it so not only do I have only have two out lets one in rest room and one but the coffee maker now i have No TV too. -_- Now I came down to check out and a guest was standing at the front desk waiting for someone we both waiting for about 20 minute to just check out and remake a room key. so with thart said I will never be staying here again.More</t>
   </si>
   <si>
+    <t>Irishgal121212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r346572663-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -766,6 +832,9 @@
     <t>This hotel is walking distance to the Galleria Dallas.The room was big, clean and modern, had all that amenities needed for a short stay, has a laundry room that is free of charge, a small snack kiosk where you can buy some essential food and drinks etc.Staff were friendly and helpful.Would stay there again.More</t>
   </si>
   <si>
+    <t>D and J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r341416692-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -817,6 +886,9 @@
     <t>This hotel exceeded my expectations. The room was equipped with cooking facilities, fridge etc, there was free laundry, a reasonable shop with the basics, dvd loan, bbq loan, and probably loads of other things, and the staff were great fun. Ross at the Front Desk was great and will give you a great selection of DVDs if you feel like staying in the room and ordering in.More</t>
   </si>
   <si>
+    <t>sam t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r333106386-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -844,6 +916,9 @@
     <t>Stayed at this hotel back in November on business. The price was reasonable and the front desk was very accommodating. Would stay here again. Only issue is the bed was on the hard side, might be used to my TemperPedic mattress but that was the only negative.More</t>
   </si>
   <si>
+    <t>steve375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r315398271-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -862,6 +937,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Doniel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r305506749-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -889,6 +967,9 @@
     <t>This hotel did some things and a bunch of other things wrong.The front desk staff were knowledgeable, helpful, and pleasant. The sheets were comfortable, as was the bed.  The bedroom, kitchen, and bathroom were all clean and well stocked.  The gym, pantry, and laundry facilities were satisfactory (though the gym had a bizarre and unsatisfactory collection of free-weights and attachments for the bowflex).  Laundry is free, though detergent costs.My major dissatisfaction with the hotel was the smell.  I'm not sure if the smell that permeated the hotel was an artificial scent purposefully diffused through the air, but it was overwhelming and, for my tastes, repugnant.  Maybe it's the smell of "candlewood."  I'm not sure, but it made my return to the hotel each day less than enjoyable.  Thankfully, the smell was limited to the corridors. However, upon entering my room, another smell, this one caused by the air conditioner, took over.  While I quickly acclimated to this smell too, it was no less unpleasant.  I even bought an air freshener at Target to help ameliorate the smell, although it wasn't strong enough and failed to make a major change.  I would recommend the Candlewood Suites investigate their air quality and work on improving it.More</t>
   </si>
   <si>
+    <t>Ben B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r303076420-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -916,6 +997,9 @@
     <t>Maintenance of the grounds and building were substandard.Bed was terrible.  Based on this trip I want be staying here again.  Housekeeping was adequate.  Room furnishing were outdated and showed considerable wear.More</t>
   </si>
   <si>
+    <t>Timothy O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r294703044-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -940,12 +1024,18 @@
     <t>This was a very nice place to stay in the Galleria area of Dallas. This hotel is very convenient and costs a lot less than other nearby hotels. The room was very nice and the front desk people were VERY nice. There was no free breakfast but that was ok. I definitely would stay there again.More</t>
   </si>
   <si>
+    <t>David L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r292700275-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
     <t>292700275</t>
   </si>
   <si>
+    <t>Cheryl3184</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r282501461-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -973,6 +1063,9 @@
     <t>The hotel is right off the toll and next to plenty of restaurants and shopping which is a plus. Room was clean and front desk staff were nice. We were allowed to check in 90 minutes early but the first room smelled strongly of either smoke or mildew. The second was renovated and for disabled individuals so it was large. My only qualms were with there being no counter/vanity in the bathroom, just a small pedestal type sink and the internet cutting on and off. I also believe the room may have been put together quickly. The bed frame was for a full size bed yet had a queen mattress on it, making it squeak randomly when weight was placed on the sides. The nightstands were also mismatched. Given the price being comparable to much nicer hotels in the area and it also not providing breakfast (chain doesn't) nor a drive up (just disheveled smokers constantly by the door), I can't say I'd stay here again.More</t>
   </si>
   <si>
+    <t>Darrell W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r282485571-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1087,9 @@
     <t>Enjoyed my stay at the Candlewood. Staff was very friendly and the hotel met my expectations. Candlewood is for travelers looking for a economical extended stay option. Don't expect a full service luxury hotel, that is not who they are attempting to serve.More</t>
   </si>
   <si>
+    <t>Deb P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r256752321-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1021,6 +1117,9 @@
     <t>I'm sure I would be considered snobby and spoiled by many. We spent 2 nights here mainly because of the prime location and the fact that we needed to bring our dog. The staff was was friendly and accommodating and the room was adequate. The sheets were low count and the furnishings reminded me of a dorm. It's an inexpensive hotel by most standards and nothing about it is special, just a case of you get what you pay for! not a place I would go back to unless budget was an issue.More</t>
   </si>
   <si>
+    <t>Brian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r241729981-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1147,9 @@
     <t>My husband stayed here for 3 nights for work and was super pleased with the cleanliness of the rooms.  Very nice staff as well made for a great experience.  Staying again over Thanksgiving and future while on assignment for travel nursing.More</t>
   </si>
   <si>
+    <t>Stan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r237672628-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1174,9 @@
     <t>I stayed there for 3 nights. The rooms are very nice but the fact that you gave to make your own bed and get towels from the desk is a little aggravating. I enjoyed it but hesitate to recommend although the front desk staff are efficient and helpful. WiFi is very goodMore</t>
   </si>
   <si>
+    <t>TrulyGoBlue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r237200440-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1198,9 @@
     <t>Stayed there the last two nights...Pros:1. Clean2. Good location3. Excellent WiFi4. Friendly front desk staffCons:1. Desk chair was in terrible shape and wouldn't go high enough.2. Gym had no wipe-down cloths or method to sanitize the aerobic equipment.3. The guest PC is actually INSIDE the little gym.  Weird.4.  I stayed in an odd number room which means I could get woken up by the dumpster trucks as they went in to reverse, as they were coming to empty the building nearby at 6:30AM in the morning.  Stay facing the FRONT of the hotel to avoid this morning racket.More</t>
   </si>
   <si>
+    <t>ermes73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r232852851-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1222,9 @@
     <t>I spent a week in the Candlewood Suites by the Galleria in Dallas now this last September.This location has been recently remodelled. The suites are even more comfortable than usual: There is a very long desk along the wall. The whole forms a T and it is possible to use one part to eat, the other one to work. The bathrooms (sink) have a new look, are extremely clean, good quality and there are shelves to put things on.Wi fi is very good. The kitchen has everything one needs.The hotel is a few hundred yards from the Galleria.The location is safe and upscale.No question: this is my home away from home when I am in Dallas.More</t>
   </si>
   <si>
+    <t>NGuardia73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r212475426-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1252,9 @@
     <t>My family and I stayed there on June 26, the room was nice but the bathroom smelled like a cantina restroom!! It had such a disgusting urine smell as if was never cleaned!!! It was very disappointing since we have stayed in candlewood suites before but never one with such poor cleaning standards.More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r207023709-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1276,9 @@
     <t>We had been to this Candlewood before and were in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and...We had been to this Candlewood before and were in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and free wifi! There is a business center and exercise room. Then there is the cupboard as they call it. This room gives you 24 hr. free coffee and free use of washers and dryers! There is also all sorts of everyday items that you use or eat that can be purchased. Drinks, snacks, food Without ever leaving the property. Most people don't realize that you can get rooms here for one night if you want to. Its not just for extended stays. We will definitely be back. Great job Candlewood!!!More</t>
   </si>
   <si>
+    <t>LenoIrish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r190208316-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1300,9 @@
     <t>We spent the month of December in Dallas for the holidays to visit with family and friends.  We wanted an accessible North Dallas hotel and we wanted a suite.  We tried the Candlewood Suites near the Galleria and could not be happier.  This well-located hotel is 1 1/2 blocks from the Galleria Mall and one block from the Dallas Tollway.  So easy to get anywhere!  This quiet, clean hotel was recently renovated and it has all the amenities you could want.  The price was right for an extended stay so we recommend it highly.  The staff is very cheerful and accommodating.  So, check this place out the next time you are staying in North Dallas, and you will thank me !More</t>
   </si>
   <si>
+    <t>Delisa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r177527217-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1330,9 @@
     <t>This hotel was the worst Hotel I've stayed at. The staff was friendly, but the housekeeping only worked once a week and we had to empty our own trash and take our dirty towels downstairs to the front desk and request fresh ones. The halls smelled like smoke, it was very bad. I do not plan to stay here ever again.More</t>
   </si>
   <si>
+    <t>Nancy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r169147898-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1237,6 +1360,9 @@
     <t>Was in Dallas to help my daughter get settled.  I chose the Candlewood Suites because of the location, the price and reputation.  I was there for 5 days and I was glad to have the kitchenette area, even though I didn't cook, it was nice to have a refrigerator.  The staff were helpful in helping me find my way to locations I wasn't familiar with and they were all friendly.  Even the night the fire alarm had a malfunction and woke us all up and we had to evacuate until the all clear by the fire department.    As stated, the location was convenient to shopping, food and the airport.  I would definitely stay here again the next time I'm in Dallas.More</t>
   </si>
   <si>
+    <t>Himanshu K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r167887517-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1411,9 @@
     <t>We had been to this Candlewood a long time ago. As we needed to stay in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete  renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food!...We had been to this Candlewood a long time ago. As we needed to stay in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete  renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and free wifi! There is a business center and exercise room. Then there is the cupboard as they call it. This room gives you 24 hr. free coffee and free use of washers and dryers! There is also all sorts of everyday items that you use or eat that can be purchased. Drinks, snacks, food  Without ever leaving the property. Most people don't realize that you can get rooms here for one night if you want to. Its not just for extended stays. We will definitely be back. Great job Candlewood!!!More</t>
   </si>
   <si>
+    <t>tatuicu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r163407484-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +1441,9 @@
     <t>Stayed here for 4 weeks and was pretty much standard fare for a Candlewood.  It's in a good location and is cheaper than the Embassy Suites next door.  All the staff were friendly save for one of the night clerks. He was a taller, hispanic man who was quite rude on a couple of occasions and a bit on the smug side. Which is puzzling considering the fact that he's a hotel clerk for a living.  In any event, the place will do the job.  Not great but you could certainly do worse.More</t>
   </si>
   <si>
+    <t>Javier C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r160817119-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1339,6 +1471,9 @@
     <t>I recently stayed here for 6 weeks and was very impressed with the recent renovations. The rooms were very tasteful and roomy and I slept so well. The big pluses were the free guest laundry and the customer service. Dondi and Staci  were always so friendly and attentive along with the rest of the staff. If my business sends me to Dallas again, I know where I will request to stay. I travel constantly for work and I am looking forward to staying at other Candlewood Suites.The location was also ideal - next to shopping and restaurants. Thanks again for the amazing stay!More</t>
   </si>
   <si>
+    <t>Cahanson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r160154535-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1363,6 +1498,9 @@
     <t>So I came to this hotel for a business trip. From outward appearances, it looked like a nice place to stay for the few weeks that I was out here. However, when I got to my room, I noticed little black bugs crawling all over the desk an countertop. I immediately went to the front desk. I told the young man that there was bugs in my room. His response: "oh yeah. We know about that." WHAT?!!! I looked at him and said "so you knew there were bugs in that room and you assigned it to me anyway?" I guess he realized that he slipped up because he immediately apologized and offered me another room. He mentioned that Orkin would be there soon to eliminate the problem. Too late, my friend. The damage was already done. And I have to mention that I'm traveling with a group of 5 and 3 of us have had to change rooms since we arrived two days ago. Not a good track record at all. More</t>
   </si>
   <si>
+    <t>Devin F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r158278400-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1387,6 +1525,9 @@
     <t>i stayed here waiting for my condo to be ready to move in the worst draw back was the lack of an onsite pool. otherwise the room was well stocked with essential s and the laundry room is free and functions. there was never any difficult y getting a machine. there is also a small cupboard with little things you would find OK n a gas station slightly over priced but ran on an honor system and always stocked very convenient its staff is pleasant and helpful. no delay OK n ordering a cab it only took 15 minutes for the longest wait the parking lo rt was rt ore up but progress seemed to move quickly that coupled with the already bad construction on 635 causes inconvenience in traffic. and gps confusion there is luckily a 24 hr CVS next doorMore</t>
   </si>
   <si>
+    <t>gwheele1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r146146903-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1414,6 +1555,9 @@
     <t>This long term stay hotel is located just two short blocks from the Galleria Mall in North Dallas (Addison). The entire property has just been renovated and it really shows. The staff is both friendly and accommodating. They do a great job of making you feel at home. My studio room had ample room, a nice kitchen with dishwasher, decent pots and pans and a full size refrigerator with ice maker. The free wireless Internet is fast and reliable. The bed is comfortable and even though they offer feather pillows, I found the standard pillows to be perfect. There are free washers and dryers to use plus a pantry where you can buy last minute items you might have forgotten like laundry soap, drinks, snacks, breakfast and more. I have to be in Dallas for an entire year and consider this the perfect place to make my home away from home.More</t>
   </si>
   <si>
+    <t>EddieKMD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r146139399-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1571,9 @@
   </si>
   <si>
     <t>I had my relatives stay at this hotel because they have a kitchen and they accept pets.  It is also reasonably priced. However, the hotel came up short on several levels. On one day, the hot water was shut off without warning and they had to take cold showers. When I called the hotel, they told me that they were under renovation and to basically expect the unexpected. On another day, their stove stopped working (because of renovations perhaps?). There are no discounts given for inconveniences. The hotel does not understand that the guests and customers are the #1 priority, not their renovations. Getting them done quick without regard to the guests is a great way to ruin someone's stay. They seem to have forgotten that without guests, they don't have any revenue. Please do not stay here because they will not put you first.More</t>
+  </si>
+  <si>
+    <t>AElizaK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r142722915-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1454,6 +1601,9 @@
 The Bad:  The lobby smells like BO.  I'm not talking a little stink.  I mean the kind that makes you hold your breath and run out the door for fresh air.  The kind you smell on a public bus in tropical heat surrounded by people who haven't bathed in a month.  I can't imagine why it smells like that but it does.  It's like they let the rankest homeless...We are relocating to Dallas, and my husband needed somewhere to stay for about 10 days.  I read all the reviews on extended-stay places (those with kitchenettes) and chose this hotel.  There were no reviews for this hotel that mentioned roaches like many of the others.  He checked in first, and then I joined him a few days later.  The location is excellent as you are right at the Dallas North Tollway.  However, he hadn't even checked in yet when he called to tell me that I wouldn't want to stay. It turned out to be OK, but you should be aware.The Good:  The staff are friendly, and he was able to get checked in without issue.  The room itself was small but nice.  Everything you need including kitchen, big closet, nice comfy bed, bathroom, and a little desk.  Plenty of outlets for computers or charging phones plus free Wifi.  The laundry facilities are free.  This is a big plus for people who will be here for an extended stay.The Bad:  The lobby smells like BO.  I'm not talking a little stink.  I mean the kind that makes you hold your breath and run out the door for fresh air.  The kind you smell on a public bus in tropical heat surrounded by people who haven't bathed in a month.  I can't imagine why it smells like that but it does.  It's like they let the rankest homeless people they can find sleep in the lobby.  Our room (on the third floor) did not have any smell, but I don't know if the first floor rooms get the stank or not.  The TV is old, and the rooms are old.  Not necessarily run down, but you will feel that it's older.  I think the refurb scheduled for later this month will help with that.  The fitness center is, for lack of a better word, busted.  One treadmill is stuck in the max incline position.  The elliptical doesn't turn on.  I ran on the other treadmill, but it's shaky. Made me feel like I could pitch sideways at any moment.  Overall, if you can get a good rate and stay on an upper level then it's probably worth it.  Just be prepared to hold your breath when you enter or exit.More</t>
   </si>
   <si>
+    <t>BetsyandScott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r142090630-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +1631,9 @@
     <t>Had some work going on at home, so had to stay away for one night.  As member of IHC Club, thought this would be OK place for overnighter.  Way wrong!  It's a dump - inside and out!  Rooms are very small and everything in them is dated and worn out.  I was afraid to sit on the bedspread! In hindsight, should have asked for refund and moved on down the road.More</t>
   </si>
   <si>
+    <t>WorldTraveler2492</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r139949441-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1673,9 @@
     <t>I just returned from a 5 day stay at this Candlewood Suites and know that I will return to this location on my future trips to the Dallas area.  The price was great, with an online special I was able to stay here for 5 nights for $280.00.  Location was great, just a short walk to the Galleria and quick drive to many locations, as well as the train to downtown Dallas.  The staff was always polite and helpful.  I was greeted every time I walked by the desk or passed staff members on the property.  The gym is a little worn, but I was still able to get in a work-out before starting my day.More</t>
   </si>
   <si>
+    <t>russ6212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r136259087-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1691,9 @@
     <t>This is my first time ever staying at a Candlewood Suites Hotel. Well I stayed here only for one night and let me tell you. I enjoyed my stay and I would stay here again if I ever had the chance. Close to shopping at the Galleria Mall and other shops.</t>
   </si>
   <si>
+    <t>Jennifer N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r133870199-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1718,9 @@
     <t>This particular location has not yet been remodeled though we hear it will be done in August, so it is a little dated. The staff is friendly but not as knowledgable and outgoing as we have experienced elsewhere. The room was clean but had a little smell to them of too much cooking and maybe smoke.  The trash in the hallway piles up and smells the entire floor before they take it out. Overall I am not impressed with anything here so far. The area is pretty decent. We are by a nice mall, Galleria, and tons of restaurants are just two exits away so that's a plus. With the Texas heat I wish they'd have shaded spots to park under.More</t>
   </si>
   <si>
+    <t>Ashu D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r123406860-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1739,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>ourunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r122449969-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1760,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>MangaMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r119203152-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1781,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>tjfmsf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r118316733-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1631,6 +1802,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>sugar32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r101363977-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1649,6 +1823,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>damodarb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r98310385-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1847,9 @@
     <t>I was in Dallas on a business trip for 3 weeks and chose to stay in Candlewood by the Galleria. The 3 weeks were absolute comfort. The kitchen facility is pretty good and one can comfortably cook inhouse without having to go out everytime for eating. The best facility provided by them is the shuttle service. Being on a short trip, I had no personal vehicle which did not handicap me at all. They provide shuttle services to the nearby office locations which according to me is the best service.Overall if you are planning to spend over a week in Dallas for personal or business purpose, I would recommend Candlewood by the Galleria.More</t>
   </si>
   <si>
+    <t>spurvia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r97577424-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1866,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>gaiuslives</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r87060695-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1721,6 +1904,9 @@
 This property is a very economic, pleasant...We stayed here for one week, in a suite with a queen-size bed.     The location is very central, near the intersection of I-635 (east/west corridor) and the North Dallas Tollway (north/south corridor).   The property is also within walking distance of the Dallas Galleria.   Also within walking distance are:  CVS, Wendy's, a sandwich shop, KFC, Paradise Bakery, and several other eateries.For the physically fit (or those trying to be), there is a small workout area on the first floor. In addition, the hotel has an arrangement with a new, nearby gym within walking distance, where you can use the facilities for no charge by showing your hotel key.  For the movie/couch potatoes,  the front desk has a large collection of DVDs, free to use/check out while you are staying there.All rooms come with a full kitchen (frig, stove, microwave, sink,  dishes, utensils).  This makes it very convenient for a longer-term visitor, rather than eating all meals out.   Immediately adjacent to the kitchen area is a work station/desk area.  The rooms come with wired internet, for no extra charge.In the living room area,   there is a TV &amp; DVD player.  The sofa can/does open as a sleeper, and is very comfortable.The bedroom was OK, and also had a TV in it.The bathroom is OK, though my one "beef" is that there is very meager counter space on the bathroom vanity. This property is a very economic, pleasant choice, especially for long-term guests.  It should not be confused with a "luxury property" by any means. If you check into this place thinking of it that way, you will be disappointed.   But the property is very good at being an economic, mid-level lodging alternative.More</t>
   </si>
   <si>
+    <t>TRRR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r80232009-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1936,9 @@
 One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my...I had never been to this hotel before, but after reading several positive reviews, I decided to bypass my normal $100/night hotel and book a 2-week stay at the Candlewood Suites by the Galleria. While I did experience issues during my stay, the management resolved them and because of that, I would definitely stay here again.We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.The lobby itself is not very impressive, but it serves its purpose. One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my stay. So this could pose as a pain if you plan on driving different vehicles or having visitors during your stay. The hotel also holds $25 against your account at check-in, which you supposedly get back at the end of your stay. One issue that we found to be a detriment to our trip was the spastic internet connection. I've read other reviews of customers that have stayed at this hotel and they've complained of the same issue. It seems to be a problem with the connection, which times out every minute or so. If you plan on watching videos online or using instant messaging services during your stay here, prepare to MANY and FREQUENT interruptions with your internet use. Another con was the air conditioning unit. It would kick on every few minutes or so, and it was so loud that you had to turn up the TV significantly to hear it. The room would often feel very hot or very cold, even with the thermostat at a steady temperature.We also experienced problems with our TV at some points during our stay. Some channels would come in very fuzzy. The channels themselves were also limited. For example, we did not get certain basic channels like MTV although we did get HBO.The first room we were given, the...More</t>
   </si>
   <si>
+    <t>pillz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r59296262-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +1957,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>NNMinAL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r58588281-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1786,6 +1978,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>michaelh009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r49041928-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +1999,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>JohansenRJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r47139538-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1819,6 +2017,9 @@
     <t>I stayed at the Candlewood on a Friday night.    The hotel was very clean, was in a great location (several blocks to the Galleria, less than 2 miles from the Addison restaurants.  Super convenient to get on the North Dallas tollway.   Full size refrigerator, cooktop and microwave.  Comfortable bed.   Wired and wireless high speed.   No complaints at all.   On this trip I paid less to stay at the Candlewood with all the amenities than I did for some dumps on the side of the freeway.  Highly recommended.</t>
   </si>
   <si>
+    <t>ladinks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r20730415-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1837,6 +2038,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>dallasvisit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r10103265-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1855,6 +2059,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>wakeuppeople</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r8067479-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2077,9 @@
     <t>I got the hotel thru hotwire usually when i reserve with them the rating was pretty good. This time they missed it. They give candlewood hotel 2.5 but it is a 1 star hotel. Dirty room, leaky air condition and restroom fan is not function. I asked to chage to another room they said i have to wait 4 hours. I paid the full amount and i do not have any choice to finish the remainder of my two days stay here. I alredy have staffy nose and headache. DO NOT STAY AT THIS HOTEL PERIOD.</t>
   </si>
   <si>
+    <t>ndavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r6314344-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1889,6 +2099,9 @@
   </si>
   <si>
     <t>I stayed here three days during a business trip.  It wasn't great, but it wasn't terrible.They offer full kitchen facilities in each room.  However, they only offer housekeeping services on a weekly basis.  If you wanted clean towels or sheets, you would have to "exchange" them at the front desk.They offered snack items on the "honor system" in their room they called the Candlewood Cupboard.  They weren't too expensive, but I usually went to the CSV next door because there was a better selection.If given a choice, I would not stay here again unless it was a last resort.  It was better than a motel, but not as nice as even a Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r1719220-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -2411,43 +2624,47 @@
       <c r="A2" t="n">
         <v>37200</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>54265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2461,50 +2678,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37200</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>123905</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2518,50 +2739,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37200</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>123906</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2581,50 +2806,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37200</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>123907</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2638,50 +2867,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37200</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>123908</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2693,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2712,37 +2945,37 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2754,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2773,37 +3006,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2815,56 +3048,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37200</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>123909</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2882,56 +3119,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37200</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>123910</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2947,56 +3188,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37200</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>123911</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3012,56 +3257,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37200</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>123912</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>131</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3073,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37200</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>123913</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3138,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37200</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>3071</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3199,56 +3456,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37200</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>123914</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3268,50 +3529,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37200</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>123915</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3325,50 +3590,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37200</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>123916</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3380,56 +3649,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37200</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>22651</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3445,56 +3718,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37200</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>123917</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3512,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37200</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>97938</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3579,56 +3860,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X20" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37200</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>7463</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3640,56 +3925,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="X21" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37200</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>123918</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3705,56 +3994,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37200</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>115648</v>
+      </c>
+      <c r="C23" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3766,56 +4059,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37200</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3833,56 +4130,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37200</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>123919</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3902,50 +4203,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37200</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>123909</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3963,56 +4268,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="X26" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37200</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2421</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4028,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
@@ -4047,37 +4356,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4095,56 +4404,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37200</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4162,56 +4475,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37200</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>123921</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4231,50 +4548,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37200</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>123922</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4290,56 +4611,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="X31" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37200</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4355,56 +4680,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37200</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4422,38 +4751,42 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37200</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>5027</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
@@ -4470,51 +4803,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37200</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>123923</v>
+      </c>
+      <c r="C35" t="s">
+        <v>331</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4530,56 +4864,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="X35" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37200</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>22278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>341</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4597,56 +4935,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37200</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4664,56 +5006,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="X37" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37200</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>6579</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4725,56 +5071,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37200</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>123924</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4790,56 +5140,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37200</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>123925</v>
+      </c>
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4855,56 +5209,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="X40" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37200</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>123926</v>
+      </c>
+      <c r="C41" t="s">
+        <v>386</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4922,56 +5280,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="X41" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37200</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>123927</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4983,56 +5345,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37200</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>123928</v>
+      </c>
+      <c r="C43" t="s">
+        <v>404</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5054,56 +5420,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="X43" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="Y43" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37200</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>123929</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5125,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="X44" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37200</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>123930</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5196,56 +5570,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37200</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>11212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>430</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5267,56 +5645,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="X46" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37200</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>123931</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5338,56 +5720,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="X47" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37200</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>123927</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5409,56 +5795,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="X48" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37200</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>31734</v>
+      </c>
+      <c r="C49" t="s">
+        <v>457</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5480,56 +5870,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="X49" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37200</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>123932</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5551,47 +5945,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="X50" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Y50" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37200</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>123933</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="L51" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
@@ -5618,56 +6016,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="X51" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="Y51" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37200</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>123934</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5689,56 +6091,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="X52" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37200</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>123935</v>
+      </c>
+      <c r="C53" t="s">
+        <v>495</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5760,56 +6166,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="X53" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37200</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>123936</v>
+      </c>
+      <c r="C54" t="s">
+        <v>505</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5831,56 +6241,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="Y54" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37200</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>123937</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5892,56 +6306,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="X55" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="Y55" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37200</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>123938</v>
+      </c>
+      <c r="C56" t="s">
+        <v>519</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="J56" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="K56" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="L56" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5963,56 +6381,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="X56" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="Y56" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37200</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>123939</v>
+      </c>
+      <c r="C57" t="s">
+        <v>529</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="J57" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6036,7 +6458,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
@@ -6049,37 +6471,37 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6103,50 +6525,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37200</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>123940</v>
+      </c>
+      <c r="C59" t="s">
+        <v>543</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="L59" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6170,41 +6596,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37200</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>11267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>549</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="J60" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="K60" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L60" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
@@ -6231,56 +6661,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="X60" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="Y60" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37200</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>123941</v>
+      </c>
+      <c r="C61" t="s">
+        <v>558</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="J61" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="K61" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
       <c r="L61" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6304,50 +6738,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37200</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>123942</v>
+      </c>
+      <c r="C62" t="s">
+        <v>565</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="O62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6371,50 +6809,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37200</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>123943</v>
+      </c>
+      <c r="C63" t="s">
+        <v>572</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="J63" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="K63" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="L63" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6438,50 +6880,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37200</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>123944</v>
+      </c>
+      <c r="C64" t="s">
+        <v>579</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6503,50 +6949,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37200</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>28802</v>
+      </c>
+      <c r="C65" t="s">
+        <v>586</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="J65" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="K65" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="L65" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="O65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6570,50 +7020,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37200</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>123945</v>
+      </c>
+      <c r="C66" t="s">
+        <v>593</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="J66" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="K66" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="L66" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6637,50 +7091,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37200</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>123946</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="J67" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="K67" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6704,50 +7162,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37200</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>123947</v>
+      </c>
+      <c r="C68" t="s">
+        <v>608</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="J68" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="K68" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="O68" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6771,50 +7233,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37200</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>123948</v>
+      </c>
+      <c r="C69" t="s">
+        <v>616</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="J69" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="K69" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="L69" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6838,50 +7304,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37200</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>123949</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6905,50 +7375,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37200</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>36604</v>
+      </c>
+      <c r="C71" t="s">
+        <v>631</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="J71" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="K71" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="L71" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="O71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6972,50 +7446,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37200</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>123950</v>
+      </c>
+      <c r="C72" t="s">
+        <v>638</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="J72" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="L72" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7039,50 +7517,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37200</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>123951</v>
+      </c>
+      <c r="C73" t="s">
+        <v>645</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="J73" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="K73" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="L73" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7106,50 +7588,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37200</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>29652</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="J74" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="K74" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="L74" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="O74" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7173,50 +7659,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37200</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>123952</v>
+      </c>
+      <c r="C75" t="s">
+        <v>658</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="J75" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="K75" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L75" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="O75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -7240,41 +7730,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37200</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>123953</v>
+      </c>
+      <c r="C76" t="s">
+        <v>665</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="J76" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="K76" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="L76" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
@@ -7293,50 +7787,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37200</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>123954</v>
+      </c>
+      <c r="C77" t="s">
+        <v>671</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="J77" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="K77" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="L77" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7360,41 +7858,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37200</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>679</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="J78" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="K78" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="L78" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7413,7 +7915,7 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_55.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_55.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="629">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,33 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Erick T</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r598644436-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109493</t>
+  </si>
+  <si>
+    <t>598644436</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Convenient and great for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is located in a convenient location in the Addison area with shopping and restaurant options within a few minutes north.  The free laundry machines and other added amenities are nice additions to your stay.  It is a little dated and needs some renovations, but all in all for the price and location, I will definitely stay here again.   </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r580932848-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109493</t>
-  </si>
-  <si>
     <t>580932848</t>
   </si>
   <si>
@@ -186,7 +198,19 @@
     <t>Just completed my first stay at a Candlewood Suite and the 4 night experience exceeded my expectation.    The property is well situated in the North Dallas Galleria area - 2 blocks to the Galleria.   There’s a Starbucks and a few restaurants all within walking distance in this very safe area of Big D.  The property is older but clean and well maintained.   My AC wasn’t cooling down the bedroom and the maintenance supervisor was in my room within 10 minutes and quickly resolved the issue.    Like every other staff I encountered, he was very positive and professional.  The property has a functional but small fitness center.   Free washers and dryers.    Free strong WiFi - supported my 3 devices with no issues.   Cable TV with 3 HBO channels.    There’s also a pantry with lots of food/drink options and it’s based on the honor system.   Seriously - very convenient.  While the furniture in the room was well worn, it was a large clean space.    Bed was very comfortable.    Plenty of towels and strong water pressure.    Kitchen had coffee maker, toaster, refrigerator and all the utensils I needed for this stay.    Great rate and good consistent service = comfortable stay.    I’m glad I took a chance and booked here.   Will be backMore</t>
   </si>
   <si>
-    <t>Sauce D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r583753661-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>583753661</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Absolutely love this hotel.The service is great, the staff are amazing and the room is modern, large and has everything you need for a comfortable stay.Location is walking distance to restaurants and shops.Highly recommended</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r547086461-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -213,9 +237,6 @@
     <t>Hi, My name is Jennifer and at first I had trouble booking online so I ended up with 3 reservations for 2 different lengths of stays!!! I really screwed up as I honestly had no idea what I was doing since my husband used to handle these things, so I was already very, very nervous and on edge trying to do this and all things on my own. So then I come in and meet BERNIE, GUEST SERVICE HERO!!!!!! He weeded through my reservations and got me the room that I needed, then let me check in EARLY!!! YES, THAT'S RIGHT LADIES AND GENTLEMEN A HOTEL (BERNIE... BERNIE, GUEST SERVICE HERO is his name, customer service is SOOOOO his game!!!) Let me check in early, SOUND THE ALARMS AND PLEASE DON'T TELL YOUR FRIENDS (I'd like to keep this part to ourselves as to NOT sound the alarms and ruin our little secret!!!) And here is the REAL SHOCKER for most..... DO NOT ADJUST YOUR SCREEN ready? BERNIE, GUEST SERVICE HERO in the true sense &amp; pleasent. With a GASP.... SHOCK..... and in awe he truly truly made a veey maddening and kind of a sad new move turned actually positive day for sure. I haven't seen my room yet, but I'm sure BERNIE, MY GUEST SERVICE HERO pocked out the perfect room for us. THANK YOU BERNIE, my true hero of the day, I will not forget it or...Hi, My name is Jennifer and at first I had trouble booking online so I ended up with 3 reservations for 2 different lengths of stays!!! I really screwed up as I honestly had no idea what I was doing since my husband used to handle these things, so I was already very, very nervous and on edge trying to do this and all things on my own. So then I come in and meet BERNIE, GUEST SERVICE HERO!!!!!! He weeded through my reservations and got me the room that I needed, then let me check in EARLY!!! YES, THAT'S RIGHT LADIES AND GENTLEMEN A HOTEL (BERNIE... BERNIE, GUEST SERVICE HERO is his name, customer service is SOOOOO his game!!!) Let me check in early, SOUND THE ALARMS AND PLEASE DON'T TELL YOUR FRIENDS (I'd like to keep this part to ourselves as to NOT sound the alarms and ruin our little secret!!!) And here is the REAL SHOCKER for most..... DO NOT ADJUST YOUR SCREEN ready? BERNIE, GUEST SERVICE HERO in the true sense &amp; pleasent. With a GASP.... SHOCK..... and in awe he truly truly made a veey maddening and kind of a sad new move turned actually positive day for sure. I haven't seen my room yet, but I'm sure BERNIE, MY GUEST SERVICE HERO pocked out the perfect room for us. THANK YOU BERNIE, my true hero of the day, I will not forget it or you and I hope we got to see lots of you during our stay at Candlewood Suites!!! So in all ladies and gentlemen, if you are blessed enough to stay here make sure you get him.More</t>
   </si>
   <si>
-    <t>amedelli</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r544811937-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,9 +258,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>The_original321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r540419011-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,9 +276,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Ativan69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r539922050-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,9 +354,6 @@
     <t>This particular Candlewood Suites was poor for the great location it was in! Upon check in the lobby is very small, like 1 door open small! We stayed on the 3rd floor in the last room on the hall. Long walk! It smelled terrible! We had a non smoking room BUT the smell was over bearing! Chelsea from the front desk (very kind) brought up a machine to "filter" the air for us. But we couldn't be in the room for almost 2 hours! When we got back the smell was WORSE! She left the machine in the room. I guess she took notice that we didn't have a trash can in our bathroom either &amp; brought 1 up. The sheets on the bed were inside out. Like they just flipped them over...? The paint was odd like it still needed to be painted... splotchy. But the air conditioner was a mess! It was a broken  one sitting on top of a old one! It had been tapped together with duct tape LOL! A hole was cut in the wall to allow air into the bedroom! So the temp. was always freezing in the front room &amp; kitchen but warm in the bedroom! Also if you wanted fresh towels you had to take the dirty one's downstairs to the front desk in exchange for clean one's! Who wants to carry dirty towels downstairs to the front desk?! There is no...This particular Candlewood Suites was poor for the great location it was in! Upon check in the lobby is very small, like 1 door open small! We stayed on the 3rd floor in the last room on the hall. Long walk! It smelled terrible! We had a non smoking room BUT the smell was over bearing! Chelsea from the front desk (very kind) brought up a machine to "filter" the air for us. But we couldn't be in the room for almost 2 hours! When we got back the smell was WORSE! She left the machine in the room. I guess she took notice that we didn't have a trash can in our bathroom either &amp; brought 1 up. The sheets on the bed were inside out. Like they just flipped them over...? The paint was odd like it still needed to be painted... splotchy. But the air conditioner was a mess! It was a broken  one sitting on top of a old one! It had been tapped together with duct tape LOL! A hole was cut in the wall to allow air into the bedroom! So the temp. was always freezing in the front room &amp; kitchen but warm in the bedroom! Also if you wanted fresh towels you had to take the dirty one's downstairs to the front desk in exchange for clean one's! Who wants to carry dirty towels downstairs to the front desk?! There is no pool! But you can wash for free! I'm pretty sure we'll never stay here again!!! More</t>
   </si>
   <si>
-    <t>Quiet_Night</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r493642754-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,9 +384,6 @@
     <t>We stayed here for one night while passing through Dallas, Texas.  I've stayed at Candlewood Suites before, and this hotel was of similar quality.  The nice features of this chain are the Candlewood Cupboard which has food, drink, and toiletries for purchase, free laundry, and above-average workout centers.  The rooms were updated and clean.  The desk agents were super friendly and welcoming to an IHG member.  Drawback is this chain has smoking rooms although they are on a separate wing.  Also, this particular hotel did not have a pool.More</t>
   </si>
   <si>
-    <t>Imad S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r491423896-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,9 +402,6 @@
     <t>I stay here every time I'm in Dallas and absolutely love this hotel. The service is great, the staff are amazing special thank you to Denise and the room is modern, large and has everything you need for a comfortable stay. Location is minutes from The Galleria and walking distance to restaurants and shop. Highly recommendedMore</t>
   </si>
   <si>
-    <t>travelmandfw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r488075576-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,9 +429,6 @@
     <t>This property sits in a very high end area for hotels and represents a great value near businesses, shopping, and restaurants. It has all one needs without all the fuss.Since it is a suite hotel with a kitchen one could have their breakfast in their suite and other meals/snacks. Location is awesome with a terrific staff. I'd highly recommend this property to anyone coming to Dallas desiring this areaMore</t>
   </si>
   <si>
-    <t>doctall41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r485774257-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,9 +447,6 @@
     <t>We stayed here before our flight to California. The Candlewood Galleria is your typical Candlewood, the room was nice with a full kitchen, separate bedroom and it has two tv's. The best thing about the hotel was Chelsea, the clerk at the desk. She was amazing!More</t>
   </si>
   <si>
-    <t>mannichamp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r452537619-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,9 +468,6 @@
     <t>Stayed for a week at the Candlewood Suites. Overall had a very pleasant experience.Positives- Excellent location. Walking distance to the Galleria Mall and a lot of excellent restaurants. Very useful if you dont have your own car.- Excellent staff - The staff is always cheerful and ready to help in any way. Check In, Check Out really smooth and fast.- The suites are spacious and have everything one would need. Suitable for small families. Spacious bathroom stocked with toiletries.- In house laundry.Negatives- Breakfast included in the stay package would be nice.Overall this is an excellent option for a long stay especially for families.More</t>
   </si>
   <si>
-    <t>Kathy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r447278240-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>Staff was very nice and helpful.  Room was clean and quiet.  Good channel selection for TV.  Bed was newer and comfortable.  Walking distance to Galleria and other shops and resturants.  Will stay again on next trip.More</t>
   </si>
   <si>
-    <t>USAFoodsGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r423974457-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -519,9 +513,6 @@
     <t>Stayed 9 nights, didn't know what to expect - as this was our first time at the chain. The location is excellent with close by freeways to everywhere in Dallas - downtown about 15 minutes with light traffic. The Staff is more than helpful, and took care of an a/c problem quickly. The room we have is the upgraded one, this has a separate bedroom and living/kitchen area. In the kitchen only thing lacking is an oven, you can get a toaster oven from the desk. Having  a kitchen is great when your tired of eating out.There are 6 washers and dryers - all Free...The internet is Fast with no slow times - so much better then many other hotelsSome misses - would prefer a king size or 2 double beds, but the queen was o.k, and the BBQ works, but needs to be retired - it's falling apart.More</t>
   </si>
   <si>
-    <t>D8400JAheatherh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r412958000-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -543,9 +534,6 @@
     <t>My daughter and I stayed a few nights with my sister here so I could watch her son a few days during her job training .  I was  very surprised at the quality of this location when I arrived.  As someone who has stayed in quite a few hotels  over the last year; this particular one stands out. This hotel comes fully stocked with everything you could possibly need during a stay away from home! It comes equipped with a glass top two burner stove with safety features to help avoid accidents with children, an overhead microwave with vent , hot pad, cutting board, dishwasher, full size refrigerator, kitchen hand towels and washcloths, dishwasher, scrub brush, dishwashing soap, dishwashing detergent, all the cooking utensils you could need, two spoons, knives and forks as well as three separate cooking knives. They even had a can opener and peeler along with a complete set of pots and pans with lids. In the cabinets they had plates, bowls, cups, ceramic and paper to go coffee cups, four different Tupperware , a strainer and a toaster! They also include a laundry basket so that you can easily put your dirty clothes down to the free laundry room located near there in hotel mini store where you can find just about anything you might be looking for! They have an on-site Fitness Center and a patio area where they have a cooking grill where they...My daughter and I stayed a few nights with my sister here so I could watch her son a few days during her job training .  I was  very surprised at the quality of this location when I arrived.  As someone who has stayed in quite a few hotels  over the last year; this particular one stands out. This hotel comes fully stocked with everything you could possibly need during a stay away from home! It comes equipped with a glass top two burner stove with safety features to help avoid accidents with children, an overhead microwave with vent , hot pad, cutting board, dishwasher, full size refrigerator, kitchen hand towels and washcloths, dishwasher, scrub brush, dishwashing soap, dishwashing detergent, all the cooking utensils you could need, two spoons, knives and forks as well as three separate cooking knives. They even had a can opener and peeler along with a complete set of pots and pans with lids. In the cabinets they had plates, bowls, cups, ceramic and paper to go coffee cups, four different Tupperware , a strainer and a toaster! They also include a laundry basket so that you can easily put your dirty clothes down to the free laundry room located near there in hotel mini store where you can find just about anything you might be looking for! They have an on-site Fitness Center and a patio area where they have a cooking grill where they provide all the utensils you could need for that too! The only complaint I have is the water pressure :-) it was clean and updated with a very friendly staff who more than accommodated us with two toddlers! The queen size bed was comfortable and so is the reclining chair! The flat screen TV and DVD player came in handy with the kiddos. The wrap-around desk made an excellent dinner table as well as place to color while keeping the kids busy while my friend went to work. I would absolutely recommend this location to anyone who is looking for a hotel style Suite with a fully loaded kitchen and great amenities to meet any business person's needs as well as any family's needs! The price you could absolutely not beat for what you were getting! I will absolutely be keeping this hotel in mind any time I return to the DFW area!More</t>
   </si>
   <si>
-    <t>shazk71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r380626068-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,9 +561,6 @@
     <t>Just stayed 2 nights at Candlewood Suits for a weekend getaway. Everything about this hotel was great.Kris at the front desk was very friendly and helpful as soon as we arrived. He went out of his way to make us feel welcome. Check in was easy and parking no problem at any time. Our room had everything we needed for a 2 night stay and was very clean and comfortable. Especially loved the kitchen and DVD player for movies. Checked out the movies for loan at the front desk but ended up walking next door to CVS to Redbox. This hotel is very quiet considering the  closeness and easy access to the freeways. We never had any problem with noise. This was a great location for restaurants and shopping and the closest Walmart, for snacks, was only 2 miles away. Love Field, where I was flying out of, was also only about a 20 minute drive away. I would highly recommend this hotel for anyone looking for a fun, hassle free getaway. It's not fancy by any means but definitely has everything that you need at a great price. More</t>
   </si>
   <si>
-    <t>John E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r376268508-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -601,9 +586,6 @@
   </si>
   <si>
     <t>The Candlewood in Dallas TX by the Galleria is so nice. The rooms are nice, the corporate rate is cheap and they have the best staff. I stay all over the country and this is the only place i have found that has an honor system for snacks and food plus the laundry is free, yes i said free. The washer and dryers are very nice and they have plenty even on the weekends. Their WiFi is as expected, you can email and work but don't try to Skype or stream because they are on a 2MB download plan without any options for premium service.More</t>
-  </si>
-  <si>
-    <t>cindel25</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r364213478-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -639,9 +621,6 @@
 -No cash change machine. If one is going to use the food pantry or do laundry, it would be useful to have the exact change instead of trying to...I was in town for Wrestlemania and this hotel was a last minute switch.  The check in process was easy since I had already prepaid for my stay.  The suite was excellent; spacious bathroom and living/dining area along with a kitchnette.  Everything was provided for but we didn't use the kitchenette that often except to make coffee.The hotel has a lending cabinet where if you need certain kitchen items, you can take it out at the front desk.  They also have a food pantry based on the honor system (which took me a minute to figure out), gym and washer/dryer.   I really like the food pantry which came in handy during those late nights.The Galleria is within walking distance along with a CVS and some fast food chains.  There is also a bus stop (488) right outside the hotel if you need to catch the bus to the train station.  The area was very nice and safe for walking late at night(most of the events ended after 11pm).Here are in my opinion the negatives:  -No ATM Machine in lobby or nearby. When I needed cash, the atms in the area were out of service. (yes, all of them. I walked for over an hour looking for working one).  -No cash change machine. If one is going to use the food pantry or do laundry, it would be useful to have the exact change instead of trying to break bills. -Shuttle Service required advanced notice and will only take you within a 5 mile radius.  I'm not sure where one would need to go in the area but I do think the hotel should at least make it an option to have a shuttle service to the nearest train station or run an airport shuttle like the other candlewood suites in dallas.-Check out process.   I had an early flight so I went down the lobby to check out at 4am. It took a few minutes for someone to finally come to the front desk and I was told the computer was down so I did not get a final receipt of my stay.  There should be some sort of self check out kiosk for early AM check out.-Elevator was broken on my second day here. Overall, I had a nice stay at this property.More</t>
   </si>
   <si>
-    <t>keepwalking w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r361054561-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -668,9 +647,6 @@
     <t>We arrived in to Dallas after long flight from Sydney. We were a bit skeptical initially that we had booked Candlewood over extended stay places ( we had never stayed before) and had 15 nights to bunk down family of 4. The experience was as rated. Tony goes above and beyond and is very personable that's reason I moved it to 5 star instead of 4....
 Pros - Value is unbeatable. I mean just not the price. With most competitive rate, the room is very decent. The facilities are good - cupboard is winning card. It was really convenient to pick up small but important things, nibbles, fluids at a late hour or when you're leaving for somewhere without leaving the facilities....they don't charge and you can pay later - we did and some some folks who didn't . there's is books and games shelf from where my son borrowed monopoly board game. The towels etc are provided on demand and washers and dryers are free. The rooms comes equipped and are standard fitted. The location is very good by the mall and shops. I even managed to catch the bus to work which isn't far. Wifi is  free and newspapers etc. we had a breakfast rate but never took it though we grabbed nibbles from the cupboard time and again
 There could be improvements. Candlewood provides shuttle only on weekdays so If you want to shop on weekends and...We arrived in to Dallas after long flight from Sydney. We were a bit skeptical initially that we had booked Candlewood over extended stay places ( we had never stayed before) and had 15 nights to bunk down family of 4. The experience was as rated. Tony goes above and beyond and is very personable that's reason I moved it to 5 star instead of 4....Pros - Value is unbeatable. I mean just not the price. With most competitive rate, the room is very decent. The facilities are good - cupboard is winning card. It was really convenient to pick up small but important things, nibbles, fluids at a late hour or when you're leaving for somewhere without leaving the facilities....they don't charge and you can pay later - we did and some some folks who didn't . there's is books and games shelf from where my son borrowed monopoly board game. The towels etc are provided on demand and washers and dryers are free. The rooms comes equipped and are standard fitted. The location is very good by the mall and shops. I even managed to catch the bus to work which isn't far. Wifi is  free and newspapers etc. we had a breakfast rate but never took it though we grabbed nibbles from the cupboard time and againThere could be improvements. Candlewood provides shuttle only on weekdays so If you want to shop on weekends and don't have a rental, it's a pain. We had to call a cab and had to spend 40 minutes waiting on the return for a cab. I hope Candlewood does something about making shuttle available on weekends since that's when it's needed most...There was small issue of smell lingering but that not big deal we got a room freshener and it went away after a whileMore</t>
-  </si>
-  <si>
-    <t>Hannah W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r358438519-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -703,9 +679,6 @@
 Very happy with the area &amp; ease of access - the hotel is...Booked in advance for 12 nights at a great price. On arrival we were greeted by Tony - very nice &amp; helpful man, he got us checked in easily, quickly &amp; gave us all the information we needed (which is also in your room). We had a room on the 3rd floor - very spacious, clean &amp; inviting. Decor was nice, looked new. We had everything we needed in our room - kitchenette had everything we needed &amp; bed was very very comfy. Cleaning service was every Sunday - some people may not like the idea of this but we liked the fact that it was on a weekly basis, it meant we didn't have to vacate our room everyday for it to be cleaned etc &amp; it felt like our home for the 12 nights rather than a hotel. "The Cupboard" facility is great - we used it mainly for food but you can get other items like medication, washing powder etc. Anything you want (that is available) you just write down &amp; it is charged to your room which is great if you don't want to leave the hotel for food etc - very trusting of the hotel so gained a lot of respect from us. Free 24 hours washing/drying &amp; gym available which is good although we did not take advantage of these facilities.Very happy with the area &amp; ease of access - the hotel is close to the Galleria shopping mall, lots of restaurants &amp; fast-food places with easy access to the highway - only a 15-20min drive into Dallas which was the main reason we picked this hotel. Have no negatives - this hotel was perfect for our stay.We defiantly recommend this hotel &amp; will defiantly consider staying here again next time we visit Dallas. More</t>
   </si>
   <si>
-    <t>stbeck75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r355447365-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -730,9 +703,6 @@
     <t>I had signed up to stay in the hotel for 32 days though after 13 nights I decided that I had enough of the smell of stale cigarettes in the hallway.  I had emailed a staff member of the hotel expressing my concerns and it appears they knew about the issue on the 3rd floor, and said they sprayed freshener several times a day.  I found that to be very unsettling that after I spent an hour touring the hotel 1st and 2nd floors and the preference to be on a higher quieter floor that they would fail to mention that. When I informed them of my desire to leave the rate went up from $65 a night to $83 a night.  As I was moving out another guest was going up to the 3rd floor to check it out as his room was too noisy for him I warned him of the smell which he smelled when he got off the elevator but he said he couldn't beat the rate of $48.00 per night.  As a loyal IHG member I feel that the hotel could of done more for me though it appears it was all about profit. I don't like to move rooms in a hotel for as a guest the 1st room should be the best room that I can get.More</t>
   </si>
   <si>
-    <t>Anthony T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r351361901-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -760,9 +730,6 @@
     <t>Went to Dallas for shopping.  We only went to Candlewood because our usual (and much more expensive) hotel could not accomodate us for the entire time of our trip.  Hotel was 1/2 mile from the Galleria, making it a great location.  Some people walk to Galleria from Candlewood,  but we didn't.  (It was raining, and besides, who wants to lug all those full shopping bags home?)  Took a city tour, a JFK tour (a little erie), rode the free DART downtown transportation (great way to see parts of the city) and visited the Museum of Art and the "Old Red" museum.  Although a full schedule, we had absolutely no problem with getting to the venues to the hotel.  And a kitchenette at half the price (or less) than many other hotels, what's not to like?  We found this gem by accident, but the value, location, staff and ability to cook our own meals (or not) were all fantastic.  We will be back!More</t>
   </si>
   <si>
-    <t>Robert S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r348107974-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -787,9 +754,6 @@
     <t>I use my reward point for this stay for the first time and it was so bad. At check in the front desk agent Tony was really was no-responsive to me being a IHG member. After being in to room for a few minute i need to charge my that is when i come to realize the first outlet did not work come to find out only 2 outlet work in the room i was so upset. So at this point I would like to watch some TV and CHill But the TV was not turning on. So I call down to the front desk for help. I tell Tony the problem and ask for him to come up and fix it. He said ok but never showed up. -_- So I call down again and speak to Chris this times is after 12am. I tell him the same thing I told to Tony then he come up and could not do nothing about it so not only do I have only have two out lets one in rest room and one but the coffee maker now i have No TV too. -_- Now I came down to check out and a guest was standing at the front desk waiting for someone we both waiting for about 20 minute to just check out and remake a room key. so with thart said I will never be staying here again.More</t>
   </si>
   <si>
-    <t>Irishgal121212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r346572663-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -832,9 +796,6 @@
     <t>This hotel is walking distance to the Galleria Dallas.The room was big, clean and modern, had all that amenities needed for a short stay, has a laundry room that is free of charge, a small snack kiosk where you can buy some essential food and drinks etc.Staff were friendly and helpful.Would stay there again.More</t>
   </si>
   <si>
-    <t>D and J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r341416692-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -886,9 +847,6 @@
     <t>This hotel exceeded my expectations. The room was equipped with cooking facilities, fridge etc, there was free laundry, a reasonable shop with the basics, dvd loan, bbq loan, and probably loads of other things, and the staff were great fun. Ross at the Front Desk was great and will give you a great selection of DVDs if you feel like staying in the room and ordering in.More</t>
   </si>
   <si>
-    <t>sam t</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r333106386-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -916,9 +874,6 @@
     <t>Stayed at this hotel back in November on business. The price was reasonable and the front desk was very accommodating. Would stay here again. Only issue is the bed was on the hard side, might be used to my TemperPedic mattress but that was the only negative.More</t>
   </si>
   <si>
-    <t>steve375</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r315398271-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -937,9 +892,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Doniel S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r305506749-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -967,9 +919,6 @@
     <t>This hotel did some things and a bunch of other things wrong.The front desk staff were knowledgeable, helpful, and pleasant. The sheets were comfortable, as was the bed.  The bedroom, kitchen, and bathroom were all clean and well stocked.  The gym, pantry, and laundry facilities were satisfactory (though the gym had a bizarre and unsatisfactory collection of free-weights and attachments for the bowflex).  Laundry is free, though detergent costs.My major dissatisfaction with the hotel was the smell.  I'm not sure if the smell that permeated the hotel was an artificial scent purposefully diffused through the air, but it was overwhelming and, for my tastes, repugnant.  Maybe it's the smell of "candlewood."  I'm not sure, but it made my return to the hotel each day less than enjoyable.  Thankfully, the smell was limited to the corridors. However, upon entering my room, another smell, this one caused by the air conditioner, took over.  While I quickly acclimated to this smell too, it was no less unpleasant.  I even bought an air freshener at Target to help ameliorate the smell, although it wasn't strong enough and failed to make a major change.  I would recommend the Candlewood Suites investigate their air quality and work on improving it.More</t>
   </si>
   <si>
-    <t>Ben B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r303076420-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -997,9 +946,6 @@
     <t>Maintenance of the grounds and building were substandard.Bed was terrible.  Based on this trip I want be staying here again.  Housekeeping was adequate.  Room furnishing were outdated and showed considerable wear.More</t>
   </si>
   <si>
-    <t>Timothy O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r294703044-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1024,16 +970,22 @@
     <t>This was a very nice place to stay in the Galleria area of Dallas. This hotel is very convenient and costs a lot less than other nearby hotels. The room was very nice and the front desk people were VERY nice. There was no free breakfast but that was ok. I definitely would stay there again.More</t>
   </si>
   <si>
-    <t>David L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r292700275-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
     <t>292700275</t>
   </si>
   <si>
-    <t>Cheryl3184</t>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Three Strikes and you are out</t>
+  </si>
+  <si>
+    <t>Well if anyone is following my reviews then you all know that I have had two other disappointing visits to Candlewood Suites in other towns before this one and indicated I was going to give them one more try.  I am an IHG Rewards member so I expect IHG quality.  This is the worst of the three.  First the lobby is like a Motel 6.  There is no seating area per se and there is a sign that says the desk is only manned from 7am - 11pm.  What kind of hotel doesn't have a 24 hour desk.  Now on to the room.  The first night we were there, there were three of us, my wife, myself and my 16 year old son, in a two room suite.  My wife and I roasted while my son froze that night.  It therefore checked the HVAC system and what a piece of trash.  Actually the HVAC system is adequate for one room, but in order to provide air they took some ducting and cut a hole in it and places it on top of the HVAC system and ran it in through the wall into the other room.  One the ductwork leaked like crazy.  The other is the location of the vent in the other room is so low that there is no way for the cool air to get anywhere, plus it is tucked in behind a dresser.  Then to top...Well if anyone is following my reviews then you all know that I have had two other disappointing visits to Candlewood Suites in other towns before this one and indicated I was going to give them one more try.  I am an IHG Rewards member so I expect IHG quality.  This is the worst of the three.  First the lobby is like a Motel 6.  There is no seating area per se and there is a sign that says the desk is only manned from 7am - 11pm.  What kind of hotel doesn't have a 24 hour desk.  Now on to the room.  The first night we were there, there were three of us, my wife, myself and my 16 year old son, in a two room suite.  My wife and I roasted while my son froze that night.  It therefore checked the HVAC system and what a piece of trash.  Actually the HVAC system is adequate for one room, but in order to provide air they took some ducting and cut a hole in it and places it on top of the HVAC system and ran it in through the wall into the other room.  One the ductwork leaked like crazy.  The other is the location of the vent in the other room is so low that there is no way for the cool air to get anywhere, plus it is tucked in behind a dresser.  Then to top that off there were cockroaches in the room.  We let the front desk know when we were leaving and this was there comment, "Other than that little hiccup, how was your stay."  Hiccup, cockroaches is definitely a sign that you have other issues in the hotel you have to deal with.  Now it that wasn't enough there we a trash can in the stairwell near the exit that smelled like something had died in it.  Notify the desk and they said it would be taken care of, well the next day the smell still existed.  Candlewood Suites you have just lost a loyal IHG member.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well if anyone is following my reviews then you all know that I have had two other disappointing visits to Candlewood Suites in other towns before this one and indicated I was going to give them one more try.  I am an IHG Rewards member so I expect IHG quality.  This is the worst of the three.  First the lobby is like a Motel 6.  There is no seating area per se and there is a sign that says the desk is only manned from 7am - 11pm.  What kind of hotel doesn't have a 24 hour desk.  Now on to the room.  The first night we were there, there were three of us, my wife, myself and my 16 year old son, in a two room suite.  My wife and I roasted while my son froze that night.  It therefore checked the HVAC system and what a piece of trash.  Actually the HVAC system is adequate for one room, but in order to provide air they took some ducting and cut a hole in it and places it on top of the HVAC system and ran it in through the wall into the other room.  One the ductwork leaked like crazy.  The other is the location of the vent in the other room is so low that there is no way for the cool air to get anywhere, plus it is tucked in behind a dresser.  Then to top...Well if anyone is following my reviews then you all know that I have had two other disappointing visits to Candlewood Suites in other towns before this one and indicated I was going to give them one more try.  I am an IHG Rewards member so I expect IHG quality.  This is the worst of the three.  First the lobby is like a Motel 6.  There is no seating area per se and there is a sign that says the desk is only manned from 7am - 11pm.  What kind of hotel doesn't have a 24 hour desk.  Now on to the room.  The first night we were there, there were three of us, my wife, myself and my 16 year old son, in a two room suite.  My wife and I roasted while my son froze that night.  It therefore checked the HVAC system and what a piece of trash.  Actually the HVAC system is adequate for one room, but in order to provide air they took some ducting and cut a hole in it and places it on top of the HVAC system and ran it in through the wall into the other room.  One the ductwork leaked like crazy.  The other is the location of the vent in the other room is so low that there is no way for the cool air to get anywhere, plus it is tucked in behind a dresser.  Then to top that off there were cockroaches in the room.  We let the front desk know when we were leaving and this was there comment, "Other than that little hiccup, how was your stay."  Hiccup, cockroaches is definitely a sign that you have other issues in the hotel you have to deal with.  Now it that wasn't enough there we a trash can in the stairwell near the exit that smelled like something had died in it.  Notify the desk and they said it would be taken care of, well the next day the smell still existed.  Candlewood Suites you have just lost a loyal IHG member.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r282501461-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1063,9 +1015,6 @@
     <t>The hotel is right off the toll and next to plenty of restaurants and shopping which is a plus. Room was clean and front desk staff were nice. We were allowed to check in 90 minutes early but the first room smelled strongly of either smoke or mildew. The second was renovated and for disabled individuals so it was large. My only qualms were with there being no counter/vanity in the bathroom, just a small pedestal type sink and the internet cutting on and off. I also believe the room may have been put together quickly. The bed frame was for a full size bed yet had a queen mattress on it, making it squeak randomly when weight was placed on the sides. The nightstands were also mismatched. Given the price being comparable to much nicer hotels in the area and it also not providing breakfast (chain doesn't) nor a drive up (just disheveled smokers constantly by the door), I can't say I'd stay here again.More</t>
   </si>
   <si>
-    <t>Darrell W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r282485571-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1087,9 +1036,6 @@
     <t>Enjoyed my stay at the Candlewood. Staff was very friendly and the hotel met my expectations. Candlewood is for travelers looking for a economical extended stay option. Don't expect a full service luxury hotel, that is not who they are attempting to serve.More</t>
   </si>
   <si>
-    <t>Deb P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r256752321-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1117,9 +1063,6 @@
     <t>I'm sure I would be considered snobby and spoiled by many. We spent 2 nights here mainly because of the prime location and the fact that we needed to bring our dog. The staff was was friendly and accommodating and the room was adequate. The sheets were low count and the furnishings reminded me of a dorm. It's an inexpensive hotel by most standards and nothing about it is special, just a case of you get what you pay for! not a place I would go back to unless budget was an issue.More</t>
   </si>
   <si>
-    <t>Brian B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r241729981-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1147,9 +1090,6 @@
     <t>My husband stayed here for 3 nights for work and was super pleased with the cleanliness of the rooms.  Very nice staff as well made for a great experience.  Staying again over Thanksgiving and future while on assignment for travel nursing.More</t>
   </si>
   <si>
-    <t>Stan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r237672628-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1174,9 +1114,6 @@
     <t>I stayed there for 3 nights. The rooms are very nice but the fact that you gave to make your own bed and get towels from the desk is a little aggravating. I enjoyed it but hesitate to recommend although the front desk staff are efficient and helpful. WiFi is very goodMore</t>
   </si>
   <si>
-    <t>TrulyGoBlue</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r237200440-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1198,9 +1135,6 @@
     <t>Stayed there the last two nights...Pros:1. Clean2. Good location3. Excellent WiFi4. Friendly front desk staffCons:1. Desk chair was in terrible shape and wouldn't go high enough.2. Gym had no wipe-down cloths or method to sanitize the aerobic equipment.3. The guest PC is actually INSIDE the little gym.  Weird.4.  I stayed in an odd number room which means I could get woken up by the dumpster trucks as they went in to reverse, as they were coming to empty the building nearby at 6:30AM in the morning.  Stay facing the FRONT of the hotel to avoid this morning racket.More</t>
   </si>
   <si>
-    <t>ermes73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r232852851-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1222,9 +1156,6 @@
     <t>I spent a week in the Candlewood Suites by the Galleria in Dallas now this last September.This location has been recently remodelled. The suites are even more comfortable than usual: There is a very long desk along the wall. The whole forms a T and it is possible to use one part to eat, the other one to work. The bathrooms (sink) have a new look, are extremely clean, good quality and there are shelves to put things on.Wi fi is very good. The kitchen has everything one needs.The hotel is a few hundred yards from the Galleria.The location is safe and upscale.No question: this is my home away from home when I am in Dallas.More</t>
   </si>
   <si>
-    <t>NGuardia73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r212475426-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1252,9 +1183,6 @@
     <t>My family and I stayed there on June 26, the room was nice but the bathroom smelled like a cantina restroom!! It had such a disgusting urine smell as if was never cleaned!!! It was very disappointing since we have stayed in candlewood suites before but never one with such poor cleaning standards.More</t>
   </si>
   <si>
-    <t>Mur018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r207023709-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1276,9 +1204,6 @@
     <t>We had been to this Candlewood before and were in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and...We had been to this Candlewood before and were in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and free wifi! There is a business center and exercise room. Then there is the cupboard as they call it. This room gives you 24 hr. free coffee and free use of washers and dryers! There is also all sorts of everyday items that you use or eat that can be purchased. Drinks, snacks, food Without ever leaving the property. Most people don't realize that you can get rooms here for one night if you want to. Its not just for extended stays. We will definitely be back. Great job Candlewood!!!More</t>
   </si>
   <si>
-    <t>LenoIrish</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r190208316-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1300,9 +1225,6 @@
     <t>We spent the month of December in Dallas for the holidays to visit with family and friends.  We wanted an accessible North Dallas hotel and we wanted a suite.  We tried the Candlewood Suites near the Galleria and could not be happier.  This well-located hotel is 1 1/2 blocks from the Galleria Mall and one block from the Dallas Tollway.  So easy to get anywhere!  This quiet, clean hotel was recently renovated and it has all the amenities you could want.  The price was right for an extended stay so we recommend it highly.  The staff is very cheerful and accommodating.  So, check this place out the next time you are staying in North Dallas, and you will thank me !More</t>
   </si>
   <si>
-    <t>Delisa R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r177527217-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1330,9 +1252,6 @@
     <t>This hotel was the worst Hotel I've stayed at. The staff was friendly, but the housekeeping only worked once a week and we had to empty our own trash and take our dirty towels downstairs to the front desk and request fresh ones. The halls smelled like smoke, it was very bad. I do not plan to stay here ever again.More</t>
   </si>
   <si>
-    <t>Nancy J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r169147898-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1360,9 +1279,6 @@
     <t>Was in Dallas to help my daughter get settled.  I chose the Candlewood Suites because of the location, the price and reputation.  I was there for 5 days and I was glad to have the kitchenette area, even though I didn't cook, it was nice to have a refrigerator.  The staff were helpful in helping me find my way to locations I wasn't familiar with and they were all friendly.  Even the night the fire alarm had a malfunction and woke us all up and we had to evacuate until the all clear by the fire department.    As stated, the location was convenient to shopping, food and the airport.  I would definitely stay here again the next time I'm in Dallas.More</t>
   </si>
   <si>
-    <t>Himanshu K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r167887517-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1411,9 +1327,6 @@
     <t>We had been to this Candlewood a long time ago. As we needed to stay in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete  renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food!...We had been to this Candlewood a long time ago. As we needed to stay in this area again, and had such great service here, we decided to stay here again. And boy are we glad we did. When we got here, we were delighted to learn that this property has just went through a complete  renovation! Its like a new hotel. The outside and all around the building were freshly redone and was very clean. All the staff that we came in contact with were the absolute best. Helpful, nice. They just wanted to bend over backwards to help us. Check-in and check-out was very quick. We still just cant get over all you get in these rooms! We got a one bedroom. Everything was new. The bedroom had a walk-in closet, dresser, end table, and its own flat screen T.V. Very comfortable bed.The bathroom is large with a great shower and shower head. Very large mirror. Hair dryer. The living room has couch, easy chair, walk-in closet and flat screen with cable. We LOVED the bar that separates the living room and kitchen. It serves as a work or eating station. Now the kitchen. This kitchen has everything you would have at home. Full size fridge. Dishwasher, microwave, coffee maker, cooktop, cutting board, pots and pans, silverware, and serving and cook utensils. You could cook and serve a meal for 4 and not bring anything but the food! You also get free parking and free wifi! There is a business center and exercise room. Then there is the cupboard as they call it. This room gives you 24 hr. free coffee and free use of washers and dryers! There is also all sorts of everyday items that you use or eat that can be purchased. Drinks, snacks, food  Without ever leaving the property. Most people don't realize that you can get rooms here for one night if you want to. Its not just for extended stays. We will definitely be back. Great job Candlewood!!!More</t>
   </si>
   <si>
-    <t>tatuicu</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r163407484-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1441,9 +1354,6 @@
     <t>Stayed here for 4 weeks and was pretty much standard fare for a Candlewood.  It's in a good location and is cheaper than the Embassy Suites next door.  All the staff were friendly save for one of the night clerks. He was a taller, hispanic man who was quite rude on a couple of occasions and a bit on the smug side. Which is puzzling considering the fact that he's a hotel clerk for a living.  In any event, the place will do the job.  Not great but you could certainly do worse.More</t>
   </si>
   <si>
-    <t>Javier C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r160817119-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1471,9 +1381,6 @@
     <t>I recently stayed here for 6 weeks and was very impressed with the recent renovations. The rooms were very tasteful and roomy and I slept so well. The big pluses were the free guest laundry and the customer service. Dondi and Staci  were always so friendly and attentive along with the rest of the staff. If my business sends me to Dallas again, I know where I will request to stay. I travel constantly for work and I am looking forward to staying at other Candlewood Suites.The location was also ideal - next to shopping and restaurants. Thanks again for the amazing stay!More</t>
   </si>
   <si>
-    <t>Cahanson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r160154535-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1498,9 +1405,6 @@
     <t>So I came to this hotel for a business trip. From outward appearances, it looked like a nice place to stay for the few weeks that I was out here. However, when I got to my room, I noticed little black bugs crawling all over the desk an countertop. I immediately went to the front desk. I told the young man that there was bugs in my room. His response: "oh yeah. We know about that." WHAT?!!! I looked at him and said "so you knew there were bugs in that room and you assigned it to me anyway?" I guess he realized that he slipped up because he immediately apologized and offered me another room. He mentioned that Orkin would be there soon to eliminate the problem. Too late, my friend. The damage was already done. And I have to mention that I'm traveling with a group of 5 and 3 of us have had to change rooms since we arrived two days ago. Not a good track record at all. More</t>
   </si>
   <si>
-    <t>Devin F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r158278400-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1525,9 +1429,6 @@
     <t>i stayed here waiting for my condo to be ready to move in the worst draw back was the lack of an onsite pool. otherwise the room was well stocked with essential s and the laundry room is free and functions. there was never any difficult y getting a machine. there is also a small cupboard with little things you would find OK n a gas station slightly over priced but ran on an honor system and always stocked very convenient its staff is pleasant and helpful. no delay OK n ordering a cab it only took 15 minutes for the longest wait the parking lo rt was rt ore up but progress seemed to move quickly that coupled with the already bad construction on 635 causes inconvenience in traffic. and gps confusion there is luckily a 24 hr CVS next doorMore</t>
   </si>
   <si>
-    <t>gwheele1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r146146903-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1555,9 +1456,6 @@
     <t>This long term stay hotel is located just two short blocks from the Galleria Mall in North Dallas (Addison). The entire property has just been renovated and it really shows. The staff is both friendly and accommodating. They do a great job of making you feel at home. My studio room had ample room, a nice kitchen with dishwasher, decent pots and pans and a full size refrigerator with ice maker. The free wireless Internet is fast and reliable. The bed is comfortable and even though they offer feather pillows, I found the standard pillows to be perfect. There are free washers and dryers to use plus a pantry where you can buy last minute items you might have forgotten like laundry soap, drinks, snacks, breakfast and more. I have to be in Dallas for an entire year and consider this the perfect place to make my home away from home.More</t>
   </si>
   <si>
-    <t>EddieKMD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r146139399-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1571,9 +1469,6 @@
   </si>
   <si>
     <t>I had my relatives stay at this hotel because they have a kitchen and they accept pets.  It is also reasonably priced. However, the hotel came up short on several levels. On one day, the hot water was shut off without warning and they had to take cold showers. When I called the hotel, they told me that they were under renovation and to basically expect the unexpected. On another day, their stove stopped working (because of renovations perhaps?). There are no discounts given for inconveniences. The hotel does not understand that the guests and customers are the #1 priority, not their renovations. Getting them done quick without regard to the guests is a great way to ruin someone's stay. They seem to have forgotten that without guests, they don't have any revenue. Please do not stay here because they will not put you first.More</t>
-  </si>
-  <si>
-    <t>AElizaK</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r142722915-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1601,9 +1496,6 @@
 The Bad:  The lobby smells like BO.  I'm not talking a little stink.  I mean the kind that makes you hold your breath and run out the door for fresh air.  The kind you smell on a public bus in tropical heat surrounded by people who haven't bathed in a month.  I can't imagine why it smells like that but it does.  It's like they let the rankest homeless...We are relocating to Dallas, and my husband needed somewhere to stay for about 10 days.  I read all the reviews on extended-stay places (those with kitchenettes) and chose this hotel.  There were no reviews for this hotel that mentioned roaches like many of the others.  He checked in first, and then I joined him a few days later.  The location is excellent as you are right at the Dallas North Tollway.  However, he hadn't even checked in yet when he called to tell me that I wouldn't want to stay. It turned out to be OK, but you should be aware.The Good:  The staff are friendly, and he was able to get checked in without issue.  The room itself was small but nice.  Everything you need including kitchen, big closet, nice comfy bed, bathroom, and a little desk.  Plenty of outlets for computers or charging phones plus free Wifi.  The laundry facilities are free.  This is a big plus for people who will be here for an extended stay.The Bad:  The lobby smells like BO.  I'm not talking a little stink.  I mean the kind that makes you hold your breath and run out the door for fresh air.  The kind you smell on a public bus in tropical heat surrounded by people who haven't bathed in a month.  I can't imagine why it smells like that but it does.  It's like they let the rankest homeless people they can find sleep in the lobby.  Our room (on the third floor) did not have any smell, but I don't know if the first floor rooms get the stank or not.  The TV is old, and the rooms are old.  Not necessarily run down, but you will feel that it's older.  I think the refurb scheduled for later this month will help with that.  The fitness center is, for lack of a better word, busted.  One treadmill is stuck in the max incline position.  The elliptical doesn't turn on.  I ran on the other treadmill, but it's shaky. Made me feel like I could pitch sideways at any moment.  Overall, if you can get a good rate and stay on an upper level then it's probably worth it.  Just be prepared to hold your breath when you enter or exit.More</t>
   </si>
   <si>
-    <t>BetsyandScott</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r142090630-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1631,9 +1523,6 @@
     <t>Had some work going on at home, so had to stay away for one night.  As member of IHC Club, thought this would be OK place for overnighter.  Way wrong!  It's a dump - inside and out!  Rooms are very small and everything in them is dated and worn out.  I was afraid to sit on the bedspread! In hindsight, should have asked for refund and moved on down the road.More</t>
   </si>
   <si>
-    <t>WorldTraveler2492</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r139949441-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1673,9 +1562,6 @@
     <t>I just returned from a 5 day stay at this Candlewood Suites and know that I will return to this location on my future trips to the Dallas area.  The price was great, with an online special I was able to stay here for 5 nights for $280.00.  Location was great, just a short walk to the Galleria and quick drive to many locations, as well as the train to downtown Dallas.  The staff was always polite and helpful.  I was greeted every time I walked by the desk or passed staff members on the property.  The gym is a little worn, but I was still able to get in a work-out before starting my day.More</t>
   </si>
   <si>
-    <t>russ6212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r136259087-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1691,9 +1577,6 @@
     <t>This is my first time ever staying at a Candlewood Suites Hotel. Well I stayed here only for one night and let me tell you. I enjoyed my stay and I would stay here again if I ever had the chance. Close to shopping at the Galleria Mall and other shops.</t>
   </si>
   <si>
-    <t>Jennifer N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r133870199-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1718,9 +1601,6 @@
     <t>This particular location has not yet been remodeled though we hear it will be done in August, so it is a little dated. The staff is friendly but not as knowledgable and outgoing as we have experienced elsewhere. The room was clean but had a little smell to them of too much cooking and maybe smoke.  The trash in the hallway piles up and smells the entire floor before they take it out. Overall I am not impressed with anything here so far. The area is pretty decent. We are by a nice mall, Galleria, and tons of restaurants are just two exits away so that's a plus. With the Texas heat I wish they'd have shaded spots to park under.More</t>
   </si>
   <si>
-    <t>Ashu D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r123406860-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1739,9 +1619,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>ourunner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r122449969-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1760,9 +1637,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>MangaMan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r119203152-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1781,9 +1655,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>tjfmsf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r118316733-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1802,9 +1673,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>sugar32</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r101363977-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1823,9 +1691,6 @@
     <t>August 2010</t>
   </si>
   <si>
-    <t>damodarb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r98310385-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1847,9 +1712,6 @@
     <t>I was in Dallas on a business trip for 3 weeks and chose to stay in Candlewood by the Galleria. The 3 weeks were absolute comfort. The kitchen facility is pretty good and one can comfortably cook inhouse without having to go out everytime for eating. The best facility provided by them is the shuttle service. Being on a short trip, I had no personal vehicle which did not handicap me at all. They provide shuttle services to the nearby office locations which according to me is the best service.Overall if you are planning to spend over a week in Dallas for personal or business purpose, I would recommend Candlewood by the Galleria.More</t>
   </si>
   <si>
-    <t>spurvia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r97577424-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1866,9 +1728,6 @@
   </si>
   <si>
     <t>February 2011</t>
-  </si>
-  <si>
-    <t>gaiuslives</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r87060695-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1904,9 +1763,6 @@
 This property is a very economic, pleasant...We stayed here for one week, in a suite with a queen-size bed.     The location is very central, near the intersection of I-635 (east/west corridor) and the North Dallas Tollway (north/south corridor).   The property is also within walking distance of the Dallas Galleria.   Also within walking distance are:  CVS, Wendy's, a sandwich shop, KFC, Paradise Bakery, and several other eateries.For the physically fit (or those trying to be), there is a small workout area on the first floor. In addition, the hotel has an arrangement with a new, nearby gym within walking distance, where you can use the facilities for no charge by showing your hotel key.  For the movie/couch potatoes,  the front desk has a large collection of DVDs, free to use/check out while you are staying there.All rooms come with a full kitchen (frig, stove, microwave, sink,  dishes, utensils).  This makes it very convenient for a longer-term visitor, rather than eating all meals out.   Immediately adjacent to the kitchen area is a work station/desk area.  The rooms come with wired internet, for no extra charge.In the living room area,   there is a TV &amp; DVD player.  The sofa can/does open as a sleeper, and is very comfortable.The bedroom was OK, and also had a TV in it.The bathroom is OK, though my one "beef" is that there is very meager counter space on the bathroom vanity. This property is a very economic, pleasant choice, especially for long-term guests.  It should not be confused with a "luxury property" by any means. If you check into this place thinking of it that way, you will be disappointed.   But the property is very good at being an economic, mid-level lodging alternative.More</t>
   </si>
   <si>
-    <t>TRRR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r80232009-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1923,7 +1779,7 @@
 We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. 
 It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.
 The lobby itself is not very impressive, but it serves its purpose. 
-One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my...I had never been to this hotel before, but after reading several positive reviews, I decided to bypass my normal $100/night hotel and book a 2-week stay at the Candlewood Suites by the Galleria. While I did experience issues during my stay, the management resolved them and because of that, I would definitely stay here again.We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.The lobby itself is not very impressive, but it serves its purpose. One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my stay. So this could pose as a pain if you plan on driving different vehicles or having visitors during your stay. The hotel also holds $25 against your account at check-in, which you supposedly get back at the end of your stay. One issue that we found to be a detriment to our trip was the spastic internet connection. I've read other reviews of customers that have stayed at this hotel and they've complained of the same issue. It seems to be a problem with the connection, which times out every minute or so. If you plan on watching videos online or using instant messaging services during your stay here, prepare to MANY and FREQUENT interruptions with your internet use. Another con was the air conditioning unit. It would kick on every few minutes or so, and it was so loud that you had to turn up the TV significantly to hear it. The room would often feel very hot or very cold, even with the thermostat at a steady temperature.We also experienced problems with our TV at some points during our stay. Some channels would come in very fuzzy. The channels themselves were also limited. For example, we did not get certain basic channels like MTV although we did get HBO.The first room we were given, the...MoreShow less</t>
+One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my...I had never been to this hotel before, but after reading several positive reviews, I decided to bypass my normal $100/night hotel and book a 2-week stay at the Candlewood Suites by the Galleria. While I did experience issues during my stay, the management resolved them and because of that, I would definitely stay here again.We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.The lobby itself is not very impressive, but it serves its purpose. One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my stay. So this could pose as a pain if you plan on driving different vehicles or having visitors during your stay. The hotel also holds $25 against your account at check-in, which you supposedly get back at the end of your stay. One issue that we found to be a detriment to our trip was the spastic internet connection. I've read other reviews of customers that have stayed at this hotel and they've complained of the same issue. It seems to be a problem with the connection, which times out every minute or so. If you plan on watching videos online or using instant messaging services during your stay here, prepare to MANY and FREQUENT interruptions with your internet use. Another con was the air conditioning unit. It would kick on every few minutes or so, and it was so loud that you had to turn up the TV significantly to hear it. The room would often feel very hot or very cold, even with the thermostat at a steady temperature.We also experienced problems with our TV at some points during our stay. Some channels would come in very fuzzy. The channels themselves were also limited. For example, we did not get certain basic channels like MTV although we did get HBO.The first room we were given, the smoke detector was hanging from the ceiling by a wire and the shower did not work. We were moved to a room nearby, and that room was great. Included in the room was a fairly spacious closet with ironing board, iron, and even a laundry basket to use during your stay. ( A great perk to this hotel is the free guest laundry. Simply bring your own detergent and save a bundle with the free washing and drying. )The kitchen in the room is just fantastic. It comes complete with a full fridge/freezer, several spacious cabinets, tupperware, cups, dishes, bowls, silverware, cooking utensils, a pot, a pan, a stove top, a dishwasher, a sink, a microwave, a coffee maker, a toaster, salt, pepper and sugar packets. They even give you a roll of paper towels, dish detergent and dish soap. Your room will come equipped with a DVD and VHS player, which is great. There's also a comfortable recliner and a nice bed. One issue with the bed is that one person will have zero space on their side. One side of the bed is so close to the wall that you can barely walk by to lay down. They should definitely move the bed over a foot or two to give more space.The location of the hotel is pretty convenient. It's very close to the Galleria and some bakeries/coffee shops. It's only a hop, skip and a jump to the Dallas North Tollway.A unique amenity at this hotel is the Candlewood Cupboard. It's basically a mini-shop near the lobby that runs on the honor system. Some items offered for sale are mouth wash, razors,shaving cream, condiments, milk, chocolate milk, juices, sodas, water, ice cream, frozen snacks like Red Barron pizza, sandwiches, burritos, etc. This would be great for someone who will be without a vehicle for some/all of their stay. Some of the items, however, are significantly overpriced. For example, a small Starbucks iced coffee bottle was $3.50. I can only assume the prices are high because so many customers must steal food items, since it runs on the honor system. You can either drop money in a slit in the counter, or fill out a form with your room number and total cost of items. The washers, dryers, two public use computers and the gym were all located in the Candlewood Cupboard room. The gym had a few exercise machines, including treadmills, a bike and a weight machine. There was also a scale in the room. If the gym is not satisfactory for you, guests receive free access to the Planet Fitness gym and and their tanning facilities next door. Just present your room card and photo ID to get in free. Another great amenity at this hotel is the free DVD rentals. Customers can rent up to 2 movies at a time from their library collection, which is actually quite impressive. There are several binders full of DVD covers to browse through and choose. The young man working at the front desk, though, was kind of rude to us. He told us to "pick up the phone and call him when you're ready, I have something to do," and he went to go sit down at his computer. What exactly is more important than dealing with customers at your hotel that are standing right in front of you?We didn't stay long enough to try out of the weekly housekeeping services, but when we asked the front desk for extra towels, they were happily given. There was no restaurant on site and no room service. I believe pets are allowed. The biggest problem of my trip, however, happened on the 7th day or so of my trip. I woke up to the sight of a couple ants in my bed. We jumped out of bed to find the floor covered in ants. This was certainly not the way I hoped to wake up on my Saturday morning. The weirdest part about all of this is that we kept the room very clean. I specifically made sure we brought our garbage downstairs daily to avoid attracting bugs. Somehow, the bugs made their way in and we spent the morning packing up our bags, terrified. I had several suitcases that I was sure the ants must've infested. We talked to the man at the front desk, and he came up to look in our room. He was very friendly and offered to move us into another room-- the room we first had, with the broken shower and smoke detector. At this point, we were so disgusted that we just wanted to leave the hotel early. If ants could get up to our room on the second floor, they could surely walk 10 feet down the hallway to the next room. We left behind lots of money worth of food in the fridge, since we couldn't bring milk/cheese/fruits, etc. with us to a new hotel-- one we didn't even have secured yet. The guy from the front desk acted like this was a normal occurrence, with ants coming through vents frequently. We were told we'd get a phone call on Monday about a refund (this was on Saturday) when a manager was on duty. Monday came and went, as did Tuesday. I played phone tag with the hotel all day Wednesday, and never got to speak with a manager. The next day, however, the manager called to let me know that he not only refunded me for the remaining part of my stay, but for my entire stay due to our inconvenience. He apologized profusely and definitely made everything right. Aside from this experience we had, the hotel seemed to be very clean and well taken care of. I even saw someone cleaning the walls with a rag on my first night there. How often do you notice carpets being vacuumed, much less walls being scrubbed clean?With everything considered, I would stay at this hotel again due to its location, price and excellent customer service. No hotel is perfect, but this one gives you more bang for your buck.MoreShow less</t>
   </si>
   <si>
     <t>September 2010</t>
@@ -1933,10 +1789,7 @@
 We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. 
 It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.
 The lobby itself is not very impressive, but it serves its purpose. 
-One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my...I had never been to this hotel before, but after reading several positive reviews, I decided to bypass my normal $100/night hotel and book a 2-week stay at the Candlewood Suites by the Galleria. While I did experience issues during my stay, the management resolved them and because of that, I would definitely stay here again.We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.The lobby itself is not very impressive, but it serves its purpose. One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my stay. So this could pose as a pain if you plan on driving different vehicles or having visitors during your stay. The hotel also holds $25 against your account at check-in, which you supposedly get back at the end of your stay. One issue that we found to be a detriment to our trip was the spastic internet connection. I've read other reviews of customers that have stayed at this hotel and they've complained of the same issue. It seems to be a problem with the connection, which times out every minute or so. If you plan on watching videos online or using instant messaging services during your stay here, prepare to MANY and FREQUENT interruptions with your internet use. Another con was the air conditioning unit. It would kick on every few minutes or so, and it was so loud that you had to turn up the TV significantly to hear it. The room would often feel very hot or very cold, even with the thermostat at a steady temperature.We also experienced problems with our TV at some points during our stay. Some channels would come in very fuzzy. The channels themselves were also limited. For example, we did not get certain basic channels like MTV although we did get HBO.The first room we were given, the...More</t>
-  </si>
-  <si>
-    <t>pillz</t>
+One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my...I had never been to this hotel before, but after reading several positive reviews, I decided to bypass my normal $100/night hotel and book a 2-week stay at the Candlewood Suites by the Galleria. While I did experience issues during my stay, the management resolved them and because of that, I would definitely stay here again.We arrived around 11 p.m. and the door to the lobby was locked. There was a phone near the locked door which rang to the front desk. We had to ask the person on duty to let us in. I guess after a certain hour, sometime after 9, they lock the lobby door and you need a room key to enter the lobby. While this is smart from a security standpoint, it's definitely a hassle if you're trying to check in or if you want to order a pizza after 9. It should also be noted that the lobby closes at 11 p.m., so there is not someone on duty 24/7. I believe they re-open the lobby at 6 a.m.The lobby itself is not very impressive, but it serves its purpose. One thing the hotel requires at check-in is your license plate(s) numbers. I believe they will tow away other vehicles that aren't registered with the hotel. This was a problem for me because I planned to rent a car at one point and also borrow a relative's car during times in my stay. So this could pose as a pain if you plan on driving different vehicles or having visitors during your stay. The hotel also holds $25 against your account at check-in, which you supposedly get back at the end of your stay. One issue that we found to be a detriment to our trip was the spastic internet connection. I've read other reviews of customers that have stayed at this hotel and they've complained of the same issue. It seems to be a problem with the connection, which times out every minute or so. If you plan on watching videos online or using instant messaging services during your stay here, prepare to MANY and FREQUENT interruptions with your internet use. Another con was the air conditioning unit. It would kick on every few minutes or so, and it was so loud that you had to turn up the TV significantly to hear it. The room would often feel very hot or very cold, even with the thermostat at a steady temperature.We also experienced problems with our TV at some points during our stay. Some channels would come in very fuzzy. The channels themselves were also limited. For example, we did not get certain basic channels like MTV although we did get HBO.The first room we were given, the smoke detector was hanging from the ceiling by a wire and the shower did not work. We were moved to a room nearby, and that room was great. Included in the room was a fairly spacious closet with ironing board, iron, and even a laundry basket to use during your stay. ( A great perk to this hotel is the free guest laundry. Simply bring your own detergent and save a bundle with the free washing and drying. )The kitchen in the room is just fantastic. It comes complete with a full fridge/freezer, several spacious cabinets, tupperware, cups, dishes, bowls, silverware, cooking utensils, a pot, a pan, a stove top, a dishwasher, a sink, a microwave, a coffee maker, a toaster, salt, pepper and sugar packets. They even give you a roll of paper towels, dish detergent and dish soap. Your room will come equipped with a DVD and VHS player, which is great. There's also a comfortable recliner and a nice bed. One issue with the bed is that one person will have zero space on their side. One side of the bed is so close to the wall that you can barely walk by to lay down. They should definitely move the bed over a foot or two to give more space.The location of the hotel is pretty convenient. It's very close to the Galleria and some bakeries/coffee shops. It's only a hop, skip and a jump to the Dallas North Tollway.A unique amenity at this hotel is the Candlewood Cupboard. It's basically a mini-shop near the lobby that runs on the honor system. Some items offered for sale are mouth wash, razors,shaving cream, condiments, milk, chocolate milk, juices, sodas, water, ice cream, frozen snacks like Red Barron pizza, sandwiches, burritos, etc. This would be great for someone who will be without a vehicle for some/all of their stay. Some of the items, however, are significantly overpriced. For example, a small Starbucks iced coffee bottle was $3.50. I can only assume the prices are high because so many customers must steal food items, since it runs on the honor system. You can either drop money in a slit in the counter, or fill out a form with your room number and total cost of items. The washers, dryers, two public use computers and the gym were all located in the Candlewood Cupboard room. The gym had a few exercise machines, including treadmills, a bike and a weight machine. There was also a scale in the room. If the gym is not satisfactory for you, guests receive free access to the Planet Fitness gym and and their tanning facilities next door. Just present your room card and photo ID to get in free. Another great amenity at this hotel is the free DVD rentals. Customers can rent up to 2 movies at a time from their library collection, which is actually quite impressive. There are several binders full of DVD covers to browse through and choose. The young man working at the front desk, though, was kind of rude to us. He told us to "pick up the phone and call him when you're ready, I have something to do," and he went to go sit down at his computer. What exactly is more important than dealing with customers at your hotel that are standing right in front of you?We didn't stay long enough to try out of the weekly housekeeping services, but when we asked the front desk for extra towels, they were happily given. There was no restaurant on site and no room service. I believe pets are allowed. The biggest problem of my trip, however, happened on the 7th day or so of my trip. I woke up to the sight of a couple ants in my bed. We jumped out of bed to find the floor covered in ants. This was certainly not the way I hoped to wake up on my Saturday morning. The weirdest part about all of this is that we kept the room very clean. I specifically made sure we brought our garbage downstairs daily to avoid attracting bugs. Somehow, the bugs made their way in and we spent the morning packing up our bags, terrified. I had several suitcases that I was sure the ants must've infested. We talked to the man at the front desk, and he came up to look in our room. He was very friendly and offered to move us into another room-- the room we first had, with the broken shower and smoke detector. At this point, we were so disgusted that we just wanted to leave the hotel early. If ants could get up to our room on the second floor, they could surely walk 10 feet down the hallway to the next room. We left behind lots of money worth of food in the fridge, since we couldn't bring milk/cheese/fruits, etc. with us to a new hotel-- one we didn't even have secured yet. The guy from the front desk acted like this was a normal occurrence, with ants coming through vents frequently. We were told we'd get a phone call on Monday about a refund (this was on Saturday) when a manager was on duty. Monday came and went, as did Tuesday. I played phone tag with the hotel all day Wednesday, and never got to speak with a manager. The next day, however, the manager called to let me know that he not only refunded me for the remaining part of my stay, but for my entire stay due to our inconvenience. He apologized profusely and definitely made everything right. Aside from this experience we had, the hotel seemed to be very clean and well taken care of. I even saw someone cleaning the walls with a rag on my first night there. How often do you notice carpets being vacuumed, much less walls being scrubbed clean?With everything considered, I would stay at this hotel again due to its location, price and excellent customer service. No hotel is perfect, but this one gives you more bang for your buck.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r59296262-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -1957,9 +1810,6 @@
     <t>February 2010</t>
   </si>
   <si>
-    <t>NNMinAL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r58588281-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1978,9 +1828,6 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>michaelh009</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r49041928-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1999,9 +1846,6 @@
     <t>October 2009</t>
   </si>
   <si>
-    <t>JohansenRJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r47139538-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2017,9 +1861,6 @@
     <t>I stayed at the Candlewood on a Friday night.    The hotel was very clean, was in a great location (several blocks to the Galleria, less than 2 miles from the Addison restaurants.  Super convenient to get on the North Dallas tollway.   Full size refrigerator, cooktop and microwave.  Comfortable bed.   Wired and wireless high speed.   No complaints at all.   On this trip I paid less to stay at the Candlewood with all the amenities than I did for some dumps on the side of the freeway.  Highly recommended.</t>
   </si>
   <si>
-    <t>ladinks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r20730415-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2038,9 +1879,6 @@
     <t>September 2008</t>
   </si>
   <si>
-    <t>dallasvisit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r10103265-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2059,9 +1897,6 @@
     <t>October 2007</t>
   </si>
   <si>
-    <t>wakeuppeople</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r8067479-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2077,9 +1912,6 @@
     <t>I got the hotel thru hotwire usually when i reserve with them the rating was pretty good. This time they missed it. They give candlewood hotel 2.5 but it is a 1 star hotel. Dirty room, leaky air condition and restroom fan is not function. I asked to chage to another room they said i have to wait 4 hours. I paid the full amount and i do not have any choice to finish the remainder of my two days stay here. I alredy have staffy nose and headache. DO NOT STAY AT THIS HOTEL PERIOD.</t>
   </si>
   <si>
-    <t>ndavis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r6314344-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
   </si>
   <si>
@@ -2099,9 +1931,6 @@
   </si>
   <si>
     <t>I stayed here three days during a business trip.  It wasn't great, but it wasn't terrible.They offer full kitchen facilities in each room.  However, they only offer housekeeping services on a weekly basis.  If you wanted clean towels or sheets, you would have to "exchange" them at the front desk.They offered snack items on the "honor system" in their room they called the Candlewood Cupboard.  They weren't too expensive, but I usually went to the CSV next door because there was a better selection.If given a choice, I would not stay here again unless it was a last resort.  It was better than a motel, but not as nice as even a Holiday Inn.More</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109493-r1719220-Candlewood_Suites_Dallas_By_the_Galleria-Dallas_Texas.html</t>
@@ -2624,48 +2453,40 @@
       <c r="A2" t="n">
         <v>37200</v>
       </c>
-      <c r="B2" t="n">
-        <v>54265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2678,54 +2499,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37200</v>
       </c>
-      <c r="B3" t="n">
-        <v>123905</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2739,63 +2556,59 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37200</v>
       </c>
-      <c r="B4" t="n">
-        <v>123906</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -2806,54 +2619,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37200</v>
       </c>
-      <c r="B5" t="n">
-        <v>123907</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2867,72 +2676,70 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37200</v>
       </c>
-      <c r="B6" t="n">
-        <v>123908</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2945,37 +2752,37 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2986,14 +2793,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" t="s">
-        <v>96</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -3006,37 +2809,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3048,340 +2851,316 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37200</v>
       </c>
-      <c r="B9" t="n">
-        <v>123909</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37200</v>
       </c>
-      <c r="B10" t="n">
-        <v>123910</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37200</v>
       </c>
-      <c r="B11" t="n">
-        <v>123911</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37200</v>
       </c>
-      <c r="B12" t="n">
-        <v>123912</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37200</v>
       </c>
-      <c r="B13" t="n">
-        <v>123913</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -3391,60 +3170,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37200</v>
       </c>
-      <c r="B14" t="n">
-        <v>3071</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3456,69 +3231,63 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37200</v>
       </c>
-      <c r="B15" t="n">
-        <v>123914</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -3526,57 +3295,57 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X15" t="s">
+        <v>135</v>
+      </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37200</v>
       </c>
-      <c r="B16" t="n">
-        <v>123915</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3587,270 +3356,244 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37200</v>
       </c>
-      <c r="B17" t="n">
-        <v>123916</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
         <v>79</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>183</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37200</v>
       </c>
-      <c r="B18" t="n">
-        <v>22651</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37200</v>
       </c>
-      <c r="B19" t="n">
-        <v>123917</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37200</v>
       </c>
-      <c r="B20" t="n">
-        <v>97938</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3860,194 +3603,190 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37200</v>
       </c>
-      <c r="B21" t="n">
-        <v>7463</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37200</v>
       </c>
-      <c r="B22" t="n">
-        <v>123918</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37200</v>
       </c>
-      <c r="B23" t="n">
-        <v>115648</v>
-      </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4059,291 +3798,269 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37200</v>
       </c>
-      <c r="B24" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37200</v>
       </c>
-      <c r="B25" t="n">
-        <v>123919</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37200</v>
       </c>
-      <c r="B26" t="n">
-        <v>123909</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37200</v>
       </c>
-      <c r="B27" t="n">
-        <v>2421</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>270</v>
-      </c>
-      <c r="X27" t="s">
-        <v>271</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -4356,46 +4073,46 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -4404,205 +4121,197 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="X28" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37200</v>
       </c>
-      <c r="B29" t="n">
-        <v>123920</v>
-      </c>
-      <c r="C29" t="s">
-        <v>282</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>3</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37200</v>
       </c>
-      <c r="B30" t="n">
-        <v>123921</v>
-      </c>
-      <c r="C30" t="s">
-        <v>292</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" t="s">
+        <v>267</v>
+      </c>
       <c r="Y30" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37200</v>
       </c>
-      <c r="B31" t="n">
-        <v>123922</v>
-      </c>
-      <c r="C31" t="s">
-        <v>299</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>305</v>
-      </c>
-      <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -4611,138 +4320,126 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37200</v>
       </c>
-      <c r="B32" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C32" t="s">
-        <v>309</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>316</v>
-      </c>
-      <c r="X32" t="s">
-        <v>317</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37200</v>
       </c>
-      <c r="B33" t="n">
-        <v>2036</v>
-      </c>
-      <c r="C33" t="s">
-        <v>319</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4751,111 +4448,130 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37200</v>
       </c>
-      <c r="B34" t="n">
-        <v>5027</v>
-      </c>
-      <c r="C34" t="s">
-        <v>328</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>330</v>
-      </c>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>298</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>299</v>
+      </c>
+      <c r="X34" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37200</v>
       </c>
-      <c r="B35" t="n">
-        <v>123923</v>
-      </c>
-      <c r="C35" t="s">
-        <v>331</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
         <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4864,273 +4580,263 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="X35" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="Y35" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37200</v>
       </c>
-      <c r="B36" t="n">
-        <v>22278</v>
-      </c>
-      <c r="C36" t="s">
-        <v>341</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37200</v>
       </c>
-      <c r="B37" t="n">
-        <v>10850</v>
-      </c>
-      <c r="C37" t="s">
-        <v>349</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" t="n">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
         <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
       </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="X37" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="Y37" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37200</v>
       </c>
-      <c r="B38" t="n">
-        <v>6579</v>
-      </c>
-      <c r="C38" t="s">
-        <v>359</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="X38" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="Y38" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37200</v>
       </c>
-      <c r="B39" t="n">
-        <v>123924</v>
-      </c>
-      <c r="C39" t="s">
-        <v>369</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="n">
+        <v>79</v>
+      </c>
+      <c r="P39" t="n">
         <v>3</v>
       </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -5140,275 +4846,253 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="X39" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37200</v>
       </c>
-      <c r="B40" t="n">
-        <v>123925</v>
-      </c>
-      <c r="C40" t="s">
-        <v>378</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="J40" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="X40" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="Y40" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37200</v>
       </c>
-      <c r="B41" t="n">
-        <v>123926</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="J41" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="K41" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="s"/>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="X41" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="Y41" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37200</v>
       </c>
-      <c r="B42" t="n">
-        <v>123927</v>
-      </c>
-      <c r="C42" t="s">
-        <v>394</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="X42" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37200</v>
       </c>
-      <c r="B43" t="n">
-        <v>123928</v>
-      </c>
-      <c r="C43" t="s">
-        <v>404</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -5420,210 +5104,188 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="X43" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="Y43" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37200</v>
       </c>
-      <c r="B44" t="n">
-        <v>123929</v>
-      </c>
-      <c r="C44" t="s">
-        <v>412</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="X44" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Y44" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37200</v>
       </c>
-      <c r="B45" t="n">
-        <v>123930</v>
-      </c>
-      <c r="C45" t="s">
-        <v>420</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="J45" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="X45" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="Y45" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37200</v>
       </c>
-      <c r="B46" t="n">
-        <v>11212</v>
-      </c>
-      <c r="C46" t="s">
-        <v>430</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5635,70 +5297,66 @@
         <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="X46" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="Y46" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37200</v>
       </c>
-      <c r="B47" t="n">
-        <v>123931</v>
-      </c>
-      <c r="C47" t="s">
-        <v>440</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5707,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
         <v>3</v>
@@ -5720,60 +5378,56 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="X47" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="Y47" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37200</v>
       </c>
-      <c r="B48" t="n">
-        <v>123927</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
         <v>404</v>
       </c>
-      <c r="D48" t="n">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" t="s">
-        <v>450</v>
-      </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="J48" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5785,145 +5439,137 @@
         <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37200</v>
       </c>
-      <c r="B49" t="n">
-        <v>31734</v>
-      </c>
-      <c r="C49" t="s">
-        <v>457</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="X49" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="Y49" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37200</v>
       </c>
-      <c r="B50" t="n">
-        <v>123932</v>
-      </c>
-      <c r="C50" t="s">
-        <v>467</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="J50" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5945,68 +5591,68 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="X50" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37200</v>
       </c>
-      <c r="B51" t="n">
-        <v>123933</v>
-      </c>
-      <c r="C51" t="s">
-        <v>477</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="J51" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -6016,72 +5662,68 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="X51" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="Y51" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37200</v>
       </c>
-      <c r="B52" t="n">
-        <v>123934</v>
-      </c>
-      <c r="C52" t="s">
-        <v>486</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="J52" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="K52" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -6091,374 +5733,354 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="X52" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37200</v>
       </c>
-      <c r="B53" t="n">
-        <v>123935</v>
-      </c>
-      <c r="C53" t="s">
-        <v>495</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="J53" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
-        <v>501</v>
-      </c>
-      <c r="O53" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="X53" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="Y53" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37200</v>
       </c>
-      <c r="B54" t="n">
-        <v>123936</v>
-      </c>
-      <c r="C54" t="s">
-        <v>505</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
         <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="X54" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="Y54" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37200</v>
       </c>
-      <c r="B55" t="n">
-        <v>123937</v>
-      </c>
-      <c r="C55" t="s">
-        <v>511</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="X55" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="Y55" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37200</v>
       </c>
-      <c r="B56" t="n">
-        <v>123938</v>
-      </c>
-      <c r="C56" t="s">
-        <v>519</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="X56" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="Y56" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37200</v>
       </c>
-      <c r="B57" t="n">
-        <v>123939</v>
-      </c>
-      <c r="C57" t="s">
-        <v>529</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="J57" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="K57" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>469</v>
+      </c>
+      <c r="X57" t="s">
+        <v>470</v>
+      </c>
       <c r="Y57" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
@@ -6471,124 +6093,124 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="J58" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>490</v>
+      </c>
+      <c r="X58" t="s">
+        <v>491</v>
+      </c>
       <c r="Y58" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37200</v>
       </c>
-      <c r="B59" t="n">
-        <v>123940</v>
-      </c>
-      <c r="C59" t="s">
-        <v>543</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
         <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
         <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6596,131 +6218,123 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37200</v>
       </c>
-      <c r="B60" t="n">
-        <v>11267</v>
-      </c>
-      <c r="C60" t="s">
-        <v>549</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="J60" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="K60" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="L60" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>498</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
       <c r="P60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>555</v>
-      </c>
-      <c r="X60" t="s">
-        <v>556</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37200</v>
       </c>
-      <c r="B61" t="n">
-        <v>123941</v>
-      </c>
-      <c r="C61" t="s">
-        <v>558</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="J61" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="K61" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="L61" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>564</v>
+        <v>418</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
         <v>4</v>
@@ -6730,7 +6344,7 @@
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6738,137 +6352,129 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37200</v>
       </c>
-      <c r="B62" t="n">
-        <v>123942</v>
-      </c>
-      <c r="C62" t="s">
-        <v>565</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="J62" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="K62" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="L62" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
-      </c>
-      <c r="N62" t="s">
-        <v>571</v>
-      </c>
-      <c r="O62" t="s">
-        <v>79</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
         <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
+      <c r="X62" t="s">
+        <v>517</v>
+      </c>
       <c r="Y62" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37200</v>
       </c>
-      <c r="B63" t="n">
-        <v>123943</v>
-      </c>
-      <c r="C63" t="s">
-        <v>572</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
       <c r="J63" t="s">
-        <v>575</v>
+        <v>521</v>
       </c>
       <c r="K63" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="L63" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -6880,68 +6486,66 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37200</v>
       </c>
-      <c r="B64" t="n">
-        <v>123944</v>
-      </c>
-      <c r="C64" t="s">
-        <v>579</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="J64" t="s">
-        <v>582</v>
+        <v>527</v>
       </c>
       <c r="K64" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="L64" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6949,54 +6553,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37200</v>
       </c>
-      <c r="B65" t="n">
-        <v>28802</v>
-      </c>
-      <c r="C65" t="s">
-        <v>586</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="J65" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="K65" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="L65" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="O65" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7005,14 +6605,14 @@
         <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -7020,70 +6620,64 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37200</v>
       </c>
-      <c r="B66" t="n">
-        <v>123945</v>
-      </c>
-      <c r="C66" t="s">
-        <v>593</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="J66" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="K66" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="L66" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
         <v>5</v>
       </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -7091,70 +6685,66 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>600</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37200</v>
       </c>
-      <c r="B67" t="n">
-        <v>123946</v>
-      </c>
-      <c r="C67" t="s">
-        <v>601</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="J67" t="s">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="K67" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="L67" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="O67" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -7162,70 +6752,66 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37200</v>
       </c>
-      <c r="B68" t="n">
-        <v>123947</v>
-      </c>
-      <c r="C68" t="s">
-        <v>608</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>609</v>
+        <v>549</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="J68" t="s">
-        <v>611</v>
+        <v>551</v>
       </c>
       <c r="K68" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="L68" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="O68" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
         <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -7233,70 +6819,66 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37200</v>
       </c>
-      <c r="B69" t="n">
-        <v>123948</v>
-      </c>
-      <c r="C69" t="s">
-        <v>616</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="J69" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="K69" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
       <c r="L69" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
       <c r="O69" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>3</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -7304,63 +6886,59 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>623</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37200</v>
       </c>
-      <c r="B70" t="n">
-        <v>123949</v>
-      </c>
-      <c r="C70" t="s">
-        <v>624</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="J70" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
       <c r="K70" t="s">
-        <v>628</v>
+        <v>565</v>
       </c>
       <c r="L70" t="s">
-        <v>629</v>
+        <v>566</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="O70" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S70" t="n">
         <v>4</v>
@@ -7375,66 +6953,62 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37200</v>
       </c>
-      <c r="B71" t="n">
-        <v>36604</v>
-      </c>
-      <c r="C71" t="s">
-        <v>631</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="J71" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
       <c r="K71" t="s">
-        <v>635</v>
+        <v>572</v>
       </c>
       <c r="L71" t="s">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>637</v>
+        <v>574</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
@@ -7446,70 +7020,66 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37200</v>
       </c>
-      <c r="B72" t="n">
-        <v>123950</v>
-      </c>
-      <c r="C72" t="s">
-        <v>638</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>639</v>
+        <v>576</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>640</v>
+        <v>577</v>
       </c>
       <c r="J72" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="K72" t="s">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="L72" t="s">
-        <v>643</v>
+        <v>580</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>644</v>
+        <v>581</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -7517,60 +7087,56 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>643</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37200</v>
       </c>
-      <c r="B73" t="n">
-        <v>123951</v>
-      </c>
-      <c r="C73" t="s">
-        <v>645</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="J73" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="K73" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="L73" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
         <v>5</v>
@@ -7580,7 +7146,7 @@
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -7588,70 +7154,66 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37200</v>
       </c>
-      <c r="B74" t="n">
-        <v>29652</v>
-      </c>
-      <c r="C74" t="s">
-        <v>651</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="J74" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="K74" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
       <c r="L74" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="O74" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T74" t="s"/>
       <c r="U74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -7659,70 +7221,66 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37200</v>
       </c>
-      <c r="B75" t="n">
-        <v>123952</v>
-      </c>
-      <c r="C75" t="s">
-        <v>658</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>659</v>
+        <v>594</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="J75" t="s">
-        <v>661</v>
+        <v>596</v>
       </c>
       <c r="K75" t="s">
-        <v>662</v>
+        <v>597</v>
       </c>
       <c r="L75" t="s">
-        <v>663</v>
+        <v>598</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -7730,123 +7288,129 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>663</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37200</v>
       </c>
-      <c r="B76" t="n">
-        <v>123953</v>
-      </c>
-      <c r="C76" t="s">
-        <v>665</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="J76" t="s">
-        <v>668</v>
+        <v>601</v>
       </c>
       <c r="K76" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="L76" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="s"/>
-      <c r="O76" t="s"/>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>604</v>
+      </c>
+      <c r="O76" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
       <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>670</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37200</v>
       </c>
-      <c r="B77" t="n">
-        <v>123954</v>
-      </c>
-      <c r="C77" t="s">
-        <v>671</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>672</v>
+        <v>605</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>673</v>
+        <v>606</v>
       </c>
       <c r="J77" t="s">
-        <v>674</v>
+        <v>607</v>
       </c>
       <c r="K77" t="s">
-        <v>675</v>
+        <v>608</v>
       </c>
       <c r="L77" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>677</v>
+        <v>610</v>
       </c>
       <c r="O77" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
       </c>
       <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
         <v>3</v>
-      </c>
-      <c r="R77" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2</v>
       </c>
       <c r="T77" t="s"/>
       <c r="U77" t="n">
@@ -7858,48 +7422,44 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>678</v>
+        <v>609</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37200</v>
       </c>
-      <c r="B78" t="n">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>679</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
       <c r="J78" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
       <c r="K78" t="s">
-        <v>683</v>
+        <v>614</v>
       </c>
       <c r="L78" t="s">
-        <v>684</v>
+        <v>615</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N78" t="s"/>
       <c r="O78" t="s"/>
@@ -7915,7 +7475,127 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>685</v>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37200</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>621</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37200</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>623</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>624</v>
+      </c>
+      <c r="J80" t="s">
+        <v>625</v>
+      </c>
+      <c r="K80" t="s">
+        <v>626</v>
+      </c>
+      <c r="L80" t="s">
+        <v>627</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
